--- a/dataset/2nd_data/preprocessing/env_detail.xlsx
+++ b/dataset/2nd_data/preprocessing/env_detail.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ137"/>
+  <dimension ref="A1:CA136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,12 +747,12 @@
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>야간평균온도</t>
+          <t>오후부터일몰까지평균온도</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>오후부터일몰까지평균온도</t>
+          <t>일출부터12시까지평균온도</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
@@ -780,6 +780,56 @@
           <t>적정온도변화폭(상위)</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>야간평균온도</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>일몰일출적합증산(HD)누적시간</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>야간평균습도</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>시간당5도이상의변화수</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>주간평균습도</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>오후부터일몰까지평균습도</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>일출부터12시까지평균습도</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>주야간온도차이</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>주야간습도차이</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>주야간온도차8도이상인날수</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -969,10 +1019,10 @@
         <v>19.56547557840629</v>
       </c>
       <c r="BK2" t="n">
-        <v>17.31875569044012</v>
+        <v>21.06550239234456</v>
       </c>
       <c r="BL2" t="n">
-        <v>21.06550239234456</v>
+        <v>17.83673130193906</v>
       </c>
       <c r="BM2" t="n">
         <v>1.083333333333333</v>
@@ -988,6 +1038,36 @@
       </c>
       <c r="BQ2" t="n">
         <v>1.289999999999999</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>16.74389984825502</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>8.233333333333333</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>58.26931714719326</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>17</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>59.70562982005132</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>57.91433014354093</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>61.77559556786709</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>2.821575730151277</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1.436312672858058</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1178,10 +1258,10 @@
         <v>20.80259923175426</v>
       </c>
       <c r="BK3" t="n">
-        <v>16.84931714719282</v>
+        <v>22.55653206650835</v>
       </c>
       <c r="BL3" t="n">
-        <v>22.55653206650835</v>
+        <v>18.77155124653739</v>
       </c>
       <c r="BM3" t="n">
         <v>0</v>
@@ -1197,6 +1277,36 @@
       </c>
       <c r="BQ3" t="n">
         <v>1.100000000000001</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>17.02368740515946</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>60.0042792109259</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>85</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>53.22435339308595</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>50.55565320665106</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>56.34731301939082</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3.778911826594801</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>-6.779925817839953</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1387,10 +1497,10 @@
         <v>21.42252240717038</v>
       </c>
       <c r="BK4" t="n">
-        <v>16.79606980273151</v>
+        <v>23.26230403800482</v>
       </c>
       <c r="BL4" t="n">
-        <v>23.26230403800482</v>
+        <v>19.29102493074792</v>
       </c>
       <c r="BM4" t="n">
         <v>1.016666666666667</v>
@@ -1406,6 +1516,36 @@
       </c>
       <c r="BQ4" t="n">
         <v>0.8900000000000006</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>17.1045827010623</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>59.37051593323233</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>43</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>57.00254801536495</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>52.14377672209049</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>62.66055401662062</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>4.317939706108081</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>-2.367967917867382</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1596,10 +1736,10 @@
         <v>20.20715749039704</v>
       </c>
       <c r="BK5" t="n">
-        <v>16.8791654021245</v>
+        <v>20.47904988123519</v>
       </c>
       <c r="BL5" t="n">
-        <v>20.47904988123519</v>
+        <v>19.90778393351803</v>
       </c>
       <c r="BM5" t="n">
         <v>2.566666666666667</v>
@@ -1615,6 +1755,36 @@
       </c>
       <c r="BQ5" t="n">
         <v>1.100000000000001</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>16.27896813353573</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>65.96130500758736</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>57.00884763124213</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>54.55057007125907</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>59.85767313019419</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>3.928189356861317</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>-8.952457376345222</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1805,10 +1975,10 @@
         <v>21.37804097311153</v>
       </c>
       <c r="BK6" t="n">
-        <v>16.26367223065256</v>
+        <v>22.79743467933502</v>
       </c>
       <c r="BL6" t="n">
-        <v>22.79743467933502</v>
+        <v>19.73997229916898</v>
       </c>
       <c r="BM6" t="n">
         <v>10.31666666666667</v>
@@ -1824,6 +1994,36 @@
       </c>
       <c r="BQ6" t="n">
         <v>2.199999999999999</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>16.36254931714726</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>63.87517450682889</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>27</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>57.63847631241993</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>51.8019952494064</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>64.44379501385055</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>5.015491655964276</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>-6.236698194408959</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2014,10 +2214,10 @@
         <v>17.07853470437029</v>
       </c>
       <c r="BK7" t="n">
-        <v>16.3155690440061</v>
+        <v>17.31313397129188</v>
       </c>
       <c r="BL7" t="n">
-        <v>17.31313397129188</v>
+        <v>16.81191135734075</v>
       </c>
       <c r="BM7" t="n">
         <v>19.65</v>
@@ -2033,6 +2233,36 @@
       </c>
       <c r="BQ7" t="n">
         <v>-6.210000000000001</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>16.21591805766319</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>70.40626707132024</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>68.71379177377914</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>69.20495215310993</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>68.14725761772841</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.8626166467071066</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>-1.692475297541108</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2223,10 +2453,10 @@
         <v>19.44283697047508</v>
       </c>
       <c r="BK8" t="n">
-        <v>16.35726858877094</v>
+        <v>20.48028571428575</v>
       </c>
       <c r="BL8" t="n">
-        <v>20.48028571428575</v>
+        <v>18.23402777777779</v>
       </c>
       <c r="BM8" t="n">
         <v>16.06666666666667</v>
@@ -2242,6 +2472,36 @@
       </c>
       <c r="BQ8" t="n">
         <v>-0.2100000000000009</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>16.46552352048565</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>68.21764795144166</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>112</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>63.22005134788205</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>59.89897619047631</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>67.08872222222239</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>2.977313449989428</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>-4.997596603559614</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2432,10 +2692,10 @@
         <v>19.73651728553148</v>
       </c>
       <c r="BK9" t="n">
-        <v>16.54405159332335</v>
+        <v>21.1127553444181</v>
       </c>
       <c r="BL9" t="n">
-        <v>21.1127553444181</v>
+        <v>18.14138504155125</v>
       </c>
       <c r="BM9" t="n">
         <v>13.48333333333333</v>
@@ -2451,6 +2711,36 @@
       </c>
       <c r="BQ9" t="n">
         <v>-0.7100000000000009</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>16.51936267071334</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>63.45248861911993</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>73</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>63.39290653008963</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>57.98612826603335</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>69.69224376731303</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>3.217154614818142</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>-0.05958208903029316</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2641,10 +2931,10 @@
         <v>20.43277848911669</v>
       </c>
       <c r="BK10" t="n">
-        <v>16.60924127465862</v>
+        <v>21.61204275534449</v>
       </c>
       <c r="BL10" t="n">
-        <v>21.61204275534449</v>
+        <v>19.07401662049862</v>
       </c>
       <c r="BM10" t="n">
         <v>1.416666666666667</v>
@@ -2660,6 +2950,36 @@
       </c>
       <c r="BQ10" t="n">
         <v>0.5</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>16.45880121396061</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>9.633333333333333</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>59.51429438543276</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>24</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>57.49553137003835</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>52.64821852731613</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>63.1449030470915</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>3.973977275156077</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>-2.018763015394406</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2850,10 +3170,10 @@
         <v>21.24177976952641</v>
       </c>
       <c r="BK11" t="n">
-        <v>16.38180576631272</v>
+        <v>23.25123515439439</v>
       </c>
       <c r="BL11" t="n">
-        <v>23.25123515439439</v>
+        <v>18.91290858725762</v>
       </c>
       <c r="BM11" t="n">
         <v>0</v>
@@ -2869,6 +3189,36 @@
       </c>
       <c r="BQ11" t="n">
         <v>1</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>16.77650986342955</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>8.483333333333333</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>59.53778452200325</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>39</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>54.69213828425111</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>49.83251781472707</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>60.34977839335205</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>4.465269906096864</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>-4.845646237752142</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3059,10 +3409,10 @@
         <v>20.10993597951354</v>
       </c>
       <c r="BK12" t="n">
-        <v>16.67339908952964</v>
+        <v>22.04935866983378</v>
       </c>
       <c r="BL12" t="n">
-        <v>22.04935866983378</v>
+        <v>17.86088642659279</v>
       </c>
       <c r="BM12" t="n">
         <v>1.883333333333333</v>
@@ -3078,6 +3428,36 @@
       </c>
       <c r="BQ12" t="n">
         <v>0.1999999999999993</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>16.49874051593332</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>63.81045523520495</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>28</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>56.55749039692707</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>51.90064133016654</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>61.9931301939059</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>3.611195463580227</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>-7.252964838277883</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3268,10 +3648,10 @@
         <v>19.28668373879654</v>
       </c>
       <c r="BK13" t="n">
-        <v>16.51198786039464</v>
+        <v>20.26788598574828</v>
       </c>
       <c r="BL13" t="n">
-        <v>20.26788598574828</v>
+        <v>18.16265927977842</v>
       </c>
       <c r="BM13" t="n">
         <v>7.816666666666666</v>
@@ -3287,6 +3667,36 @@
       </c>
       <c r="BQ13" t="n">
         <v>1.789999999999999</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>16.69880121396066</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>10.36666666666667</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>62.70298937784523</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>33</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>60.26906530089637</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>55.61622327790982</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>65.69889196675896</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>2.587882524835884</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>-2.433924076948863</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3477,10 +3887,10 @@
         <v>20.10907810499371</v>
       </c>
       <c r="BK14" t="n">
-        <v>16.94241274658588</v>
+        <v>21.23883610451317</v>
       </c>
       <c r="BL14" t="n">
-        <v>21.23883610451317</v>
+        <v>18.80313019390583</v>
       </c>
       <c r="BM14" t="n">
         <v>0.1166666666666667</v>
@@ -3496,6 +3906,36 @@
       </c>
       <c r="BQ14" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>16.70669195751147</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>54.39089529590306</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>51.51076824583895</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>46.23646080760118</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>57.65390581717474</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>3.40238614748224</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>-2.880127050064111</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3686,10 +4126,10 @@
         <v>20.57580025608205</v>
       </c>
       <c r="BK15" t="n">
-        <v>16.58860394537183</v>
+        <v>22.10674584323045</v>
       </c>
       <c r="BL15" t="n">
-        <v>22.10674584323045</v>
+        <v>18.80404432132964</v>
       </c>
       <c r="BM15" t="n">
         <v>0</v>
@@ -3705,6 +4145,36 @@
       </c>
       <c r="BQ15" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>16.77288315629755</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>53.13367223065302</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>49.65594110115259</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>46.0439429928743</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>53.86562326869829</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>3.802917099784498</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>-3.477731129500427</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3895,10 +4365,10 @@
         <v>20.08732394366211</v>
       </c>
       <c r="BK16" t="n">
-        <v>16.92142640364195</v>
+        <v>20.90852731591453</v>
       </c>
       <c r="BL16" t="n">
-        <v>20.90852731591453</v>
+        <v>19.14518005540165</v>
       </c>
       <c r="BM16" t="n">
         <v>0</v>
@@ -3914,6 +4384,36 @@
       </c>
       <c r="BQ16" t="n">
         <v>-0.2100000000000009</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>16.82332321699554</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>53.35634294385441</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>31</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>49.38934699103739</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>45.91332541567709</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>53.42842105263177</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>3.264000726666566</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>-3.966995952817015</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4104,10 +4604,10 @@
         <v>20.79483994878377</v>
       </c>
       <c r="BK17" t="n">
-        <v>15.95752655538699</v>
+        <v>21.90845605700717</v>
       </c>
       <c r="BL17" t="n">
-        <v>21.90845605700717</v>
+        <v>19.51249307479225</v>
       </c>
       <c r="BM17" t="n">
         <v>0</v>
@@ -4123,6 +4623,36 @@
       </c>
       <c r="BQ17" t="n">
         <v>1.390000000000001</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>16.14433990895308</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>2.533333333333333</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>52.08124430956022</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>44</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>47.51288092189528</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>42.83646080760109</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>52.95875346260408</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>4.650500039830693</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>-4.568363387664938</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4313,10 +4843,10 @@
         <v>21.43676056338039</v>
       </c>
       <c r="BK18" t="n">
-        <v>16.47872534142646</v>
+        <v>23.00845605700718</v>
       </c>
       <c r="BL18" t="n">
-        <v>23.00845605700718</v>
+        <v>19.61728531855955</v>
       </c>
       <c r="BM18" t="n">
         <v>0</v>
@@ -4332,6 +4862,36 @@
       </c>
       <c r="BQ18" t="n">
         <v>1.390000000000001</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>15.91975720789078</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>9.783333333333333</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>57.3947040971171</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>113</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>48.77491677336776</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>45.3742992874111</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>52.7283102493077</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>5.517003355489605</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>-8.619787323749343</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4522,10 +5082,10 @@
         <v>20.28386683738808</v>
       </c>
       <c r="BK19" t="n">
-        <v>16.09708649468902</v>
+        <v>21.02251781472687</v>
       </c>
       <c r="BL19" t="n">
-        <v>21.02251781472687</v>
+        <v>19.43797783933519</v>
       </c>
       <c r="BM19" t="n">
         <v>0</v>
@@ -4541,6 +5101,36 @@
       </c>
       <c r="BQ19" t="n">
         <v>0.5</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>16.58746585735978</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>2.633333333333333</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>55.73830045523536</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>119</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>51.59948783610769</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>47.57045130641351</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>56.28736842105285</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>3.696400980028304</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>-4.13881261912767</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4731,10 +5321,10 @@
         <v>20.6099615877082</v>
       </c>
       <c r="BK20" t="n">
-        <v>16.77590288315639</v>
+        <v>21.69534441805231</v>
       </c>
       <c r="BL20" t="n">
-        <v>21.69534441805231</v>
+        <v>19.35689750692519</v>
       </c>
       <c r="BM20" t="n">
         <v>0</v>
@@ -4750,6 +5340,36 @@
       </c>
       <c r="BQ20" t="n">
         <v>-0.2100000000000009</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>16.73569044006084</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>53.37673748103241</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>37</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>48.7424071702947</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>43.67494061757734</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>54.64947368421077</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>3.874271147647356</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>-4.634330310737717</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4940,10 +5560,10 @@
         <v>20.94227912932154</v>
       </c>
       <c r="BK21" t="n">
-        <v>16.47808801213964</v>
+        <v>21.9535391923991</v>
       </c>
       <c r="BL21" t="n">
-        <v>21.9535391923991</v>
+        <v>19.77972299168975</v>
       </c>
       <c r="BM21" t="n">
         <v>0</v>
@@ -4959,6 +5579,36 @@
       </c>
       <c r="BQ21" t="n">
         <v>1.199999999999999</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>16.21321699544772</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>4.316666666666666</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>56.1550834597878</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>106</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>49.52201024327808</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>45.93631828978639</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>53.69252077562348</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>4.729062133873818</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>-6.633073216509722</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5149,10 +5799,10 @@
         <v>19.65907810499372</v>
       </c>
       <c r="BK22" t="n">
-        <v>16.13116843702585</v>
+        <v>20.12477434679339</v>
       </c>
       <c r="BL22" t="n">
-        <v>20.12477434679339</v>
+        <v>19.1307756232687</v>
       </c>
       <c r="BM22" t="n">
         <v>0.06666666666666667</v>
@@ -5168,6 +5818,36 @@
       </c>
       <c r="BQ22" t="n">
         <v>-0.3999999999999986</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>16.26136570561468</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>7.466666666666667</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>58.55538694992446</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>56.4475544174136</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>56.08327790973891</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>56.85614958448779</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>3.397712399379035</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>-2.107832532510862</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5358,10 +6038,10 @@
         <v>21.20017925736246</v>
       </c>
       <c r="BK23" t="n">
-        <v>16.49116843702585</v>
+        <v>22.13068883610458</v>
       </c>
       <c r="BL23" t="n">
-        <v>22.13068883610458</v>
+        <v>20.12800554016623</v>
       </c>
       <c r="BM23" t="n">
         <v>0</v>
@@ -5377,6 +6057,36 @@
       </c>
       <c r="BQ23" t="n">
         <v>0.7899999999999991</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>16.65068285280745</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>53.91963581183634</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>68</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>47.33537772087093</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>40.65118764845614</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>55.11822714681463</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>4.549496404555008</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>-6.584258090965406</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5567,10 +6277,10 @@
         <v>21.77247119078116</v>
       </c>
       <c r="BK24" t="n">
-        <v>16.53939301972691</v>
+        <v>23.37327790973881</v>
       </c>
       <c r="BL24" t="n">
-        <v>23.37327790973881</v>
+        <v>19.92116343490306</v>
       </c>
       <c r="BM24" t="n">
         <v>0</v>
@@ -5586,6 +6296,36 @@
       </c>
       <c r="BQ24" t="n">
         <v>1.699999999999999</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>16.19253414264042</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>5.983333333333333</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>56.73553869499261</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>104</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>48.63681177976979</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>43.77330166270798</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>54.29692520775642</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>5.579937048140746</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>-8.098726915222812</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5776,10 +6516,10 @@
         <v>21.28854033290667</v>
       </c>
       <c r="BK25" t="n">
-        <v>16.10652503793632</v>
+        <v>22.7898099762471</v>
       </c>
       <c r="BL25" t="n">
-        <v>22.7898099762471</v>
+        <v>19.54745152354569</v>
       </c>
       <c r="BM25" t="n">
         <v>0</v>
@@ -5795,6 +6535,36 @@
       </c>
       <c r="BQ25" t="n">
         <v>0.7899999999999991</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>16.12866464339919</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>52.24798179059214</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>111</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>49.30636363636381</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>43.71092636579588</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>55.82149584487559</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>5.159875689507487</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>-2.941618154228323</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5985,10 +6755,10 @@
         <v>21.72901408450712</v>
       </c>
       <c r="BK26" t="n">
-        <v>16.11790591805768</v>
+        <v>24.08204275534451</v>
       </c>
       <c r="BL26" t="n">
-        <v>24.08204275534451</v>
+        <v>18.99728531855956</v>
       </c>
       <c r="BM26" t="n">
         <v>0</v>
@@ -6004,6 +6774,36 @@
       </c>
       <c r="BQ26" t="n">
         <v>1.390000000000001</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>16.23600910470411</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>51.33550834597887</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>85</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>46.20685019206179</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>41.08904988123529</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>52.15861495844895</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>5.493004979803008</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>-5.12865815391708</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6194,10 +6994,10 @@
         <v>21.27880921895021</v>
       </c>
       <c r="BK27" t="n">
-        <v>16.25708841463423</v>
+        <v>22.93757719714973</v>
       </c>
       <c r="BL27" t="n">
-        <v>22.93757719714973</v>
+        <v>19.36047091412743</v>
       </c>
       <c r="BM27" t="n">
         <v>0</v>
@@ -6213,6 +7013,36 @@
       </c>
       <c r="BQ27" t="n">
         <v>2.199999999999999</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>16.16253048780498</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>51.01024390243937</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>109</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>46.41965428937289</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>41.62004750593838</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>52.00637119113595</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>5.116278731145229</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>-4.590589613066484</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6403,10 +7233,10 @@
         <v>21.57651728553148</v>
       </c>
       <c r="BK28" t="n">
-        <v>16.12264036418823</v>
+        <v>23.15230403800481</v>
       </c>
       <c r="BL28" t="n">
-        <v>23.15230403800481</v>
+        <v>19.75465373961218</v>
       </c>
       <c r="BM28" t="n">
         <v>0</v>
@@ -6422,6 +7252,36 @@
       </c>
       <c r="BQ28" t="n">
         <v>1.289999999999999</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>16.1035660091048</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT28" t="n">
+        <v>51.78878603945398</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>101</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>44.79143405889918</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>40.34771971496449</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>49.96207756232702</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>5.472951276426684</v>
+      </c>
+      <c r="BZ28" t="n">
+        <v>-6.997351980554804</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6612,10 +7472,10 @@
         <v>21.16844672657263</v>
       </c>
       <c r="BK29" t="n">
-        <v>16.14104704097123</v>
+        <v>22.59657957244664</v>
       </c>
       <c r="BL29" t="n">
-        <v>22.59657957244664</v>
+        <v>19.50434540389973</v>
       </c>
       <c r="BM29" t="n">
         <v>0</v>
@@ -6631,6 +7491,36 @@
       </c>
       <c r="BQ29" t="n">
         <v>1</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>16.09274658573605</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>51.53693474962104</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>89</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>44.57118100128396</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>39.79800475059395</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>50.15289693593331</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>5.075700140836577</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>-6.965753748337079</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6821,10 +7711,10 @@
         <v>18.32966709346998</v>
       </c>
       <c r="BK30" t="n">
-        <v>9.505918057663131</v>
+        <v>17.77073634204277</v>
       </c>
       <c r="BL30" t="n">
-        <v>17.77073634204277</v>
+        <v>19.00191135734072</v>
       </c>
       <c r="BM30" t="n">
         <v>0</v>
@@ -6840,6 +7730,36 @@
       </c>
       <c r="BQ30" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>0.6945978755690442</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BT30" t="n">
+        <v>2.644248861911989</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>206</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>41.35517285531404</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>32.89444180522572</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>51.21531855955695</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>17.63506921790094</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>38.71092399340205</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -7030,10 +7950,10 @@
         <v>12.35830551989734</v>
       </c>
       <c r="BK31" t="n">
-        <v>0</v>
+        <v>14.64732696897375</v>
       </c>
       <c r="BL31" t="n">
-        <v>14.64732696897375</v>
+        <v>9.732936288088629</v>
       </c>
       <c r="BM31" t="n">
         <v>2.266666666666667</v>
@@ -7049,6 +7969,36 @@
       </c>
       <c r="BQ31" t="n">
         <v>-1.609999999999999</v>
+      </c>
+      <c r="BR31" t="n">
+        <v>0.854855842185129</v>
+      </c>
+      <c r="BS31" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="BT31" t="n">
+        <v>3.538027314112293</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>328</v>
+      </c>
+      <c r="BV31" t="n">
+        <v>35.02869062901178</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>35.53873508353226</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>34.44271468144048</v>
+      </c>
+      <c r="BY31" t="n">
+        <v>11.50344967771221</v>
+      </c>
+      <c r="BZ31" t="n">
+        <v>31.49066331489949</v>
+      </c>
+      <c r="CA31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -7239,10 +8189,10 @@
         <v>13.031152368758</v>
       </c>
       <c r="BK32" t="n">
-        <v>7.477981790591807</v>
+        <v>16.60161520190027</v>
       </c>
       <c r="BL32" t="n">
-        <v>16.60161520190027</v>
+        <v>8.88518005540165</v>
       </c>
       <c r="BM32" t="n">
         <v>3.716666666666667</v>
@@ -7258,6 +8208,36 @@
       </c>
       <c r="BQ32" t="n">
         <v>-3</v>
+      </c>
+      <c r="BR32" t="n">
+        <v>13.5196200607903</v>
+      </c>
+      <c r="BS32" t="n">
+        <v>9.933333333333334</v>
+      </c>
+      <c r="BT32" t="n">
+        <v>53.4866565349547</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>378</v>
+      </c>
+      <c r="BV32" t="n">
+        <v>39.36517285531389</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>47.20130641330173</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>30.25304709141274</v>
+      </c>
+      <c r="BY32" t="n">
+        <v>-0.4884676920322999</v>
+      </c>
+      <c r="BZ32" t="n">
+        <v>-14.12148367964081</v>
+      </c>
+      <c r="CA32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -7448,10 +8428,10 @@
         <v>17.70480153649174</v>
       </c>
       <c r="BK33" t="n">
-        <v>12.365623100304</v>
+        <v>17.58624703087888</v>
       </c>
       <c r="BL33" t="n">
-        <v>17.58624703087888</v>
+        <v>17.85714681440444</v>
       </c>
       <c r="BM33" t="n">
         <v>3.033333333333333</v>
@@ -7467,6 +8447,36 @@
       </c>
       <c r="BQ33" t="n">
         <v>0</v>
+      </c>
+      <c r="BR33" t="n">
+        <v>13.54605462822461</v>
+      </c>
+      <c r="BS33" t="n">
+        <v>10.11666666666667</v>
+      </c>
+      <c r="BT33" t="n">
+        <v>56.03444613050094</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>784</v>
+      </c>
+      <c r="BV33" t="n">
+        <v>53.69476312420008</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>52.23684085510695</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>55.38362880886442</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>4.15874690826713</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>-2.339683006300859</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -7657,10 +8667,10 @@
         <v>17.18772785622598</v>
       </c>
       <c r="BK34" t="n">
-        <v>14.05251896813358</v>
+        <v>16.7722090261283</v>
       </c>
       <c r="BL34" t="n">
-        <v>16.7722090261283</v>
+        <v>17.69479108635099</v>
       </c>
       <c r="BM34" t="n">
         <v>4.633333333333334</v>
@@ -7676,6 +8686,36 @@
       </c>
       <c r="BQ34" t="n">
         <v>-0.7100000000000009</v>
+      </c>
+      <c r="BR34" t="n">
+        <v>14.03276176024282</v>
+      </c>
+      <c r="BS34" t="n">
+        <v>10.46666666666667</v>
+      </c>
+      <c r="BT34" t="n">
+        <v>59.95195751138098</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>502</v>
+      </c>
+      <c r="BV34" t="n">
+        <v>56.73518613607219</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>57.4073159144894</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>55.91206128133723</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>3.154966095983161</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>-3.216771375308795</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -7866,10 +8906,10 @@
         <v>17.16706786171585</v>
       </c>
       <c r="BK35" t="n">
-        <v>8.609696509863458</v>
+        <v>16.61251781472686</v>
       </c>
       <c r="BL35" t="n">
-        <v>16.61251781472686</v>
+        <v>17.83074792243769</v>
       </c>
       <c r="BM35" t="n">
         <v>3.416666666666667</v>
@@ -7885,6 +8925,36 @@
       </c>
       <c r="BQ35" t="n">
         <v>1.699999999999999</v>
+      </c>
+      <c r="BR35" t="n">
+        <v>1.385432473444613</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>1.033333333333333</v>
+      </c>
+      <c r="BT35" t="n">
+        <v>5.660789074355084</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>395</v>
+      </c>
+      <c r="BV35" t="n">
+        <v>47.86558258642802</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>38.85258907363423</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>58.34451523545722</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>15.78163538827124</v>
+      </c>
+      <c r="BZ35" t="n">
+        <v>42.20479351207293</v>
+      </c>
+      <c r="CA35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -8075,10 +9145,10 @@
         <v>14.96094993581515</v>
       </c>
       <c r="BK36" t="n">
-        <v>7.440531107739006</v>
+        <v>17.24451306413305</v>
       </c>
       <c r="BL36" t="n">
-        <v>17.24451306413305</v>
+        <v>12.30178272980499</v>
       </c>
       <c r="BM36" t="n">
         <v>7.05</v>
@@ -8094,6 +9164,36 @@
       </c>
       <c r="BQ36" t="n">
         <v>0.2899999999999991</v>
+      </c>
+      <c r="BR36" t="n">
+        <v>14.62265553869501</v>
+      </c>
+      <c r="BS36" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BT36" t="n">
+        <v>65.51608497723815</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>357</v>
+      </c>
+      <c r="BV36" t="n">
+        <v>45.12056482670109</v>
+      </c>
+      <c r="BW36" t="n">
+        <v>58.64456057007128</v>
+      </c>
+      <c r="BX36" t="n">
+        <v>29.24693593314764</v>
+      </c>
+      <c r="BY36" t="n">
+        <v>0.3382943971201406</v>
+      </c>
+      <c r="BZ36" t="n">
+        <v>-20.39552015053706</v>
+      </c>
+      <c r="CA36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -8284,10 +9384,10 @@
         <v>18.93212548015377</v>
       </c>
       <c r="BK37" t="n">
-        <v>14.59634294385434</v>
+        <v>19.01655581947746</v>
       </c>
       <c r="BL37" t="n">
-        <v>19.01655581947746</v>
+        <v>18.8546260387812</v>
       </c>
       <c r="BM37" t="n">
         <v>5.066666666666666</v>
@@ -8303,6 +9403,36 @@
       </c>
       <c r="BQ37" t="n">
         <v>2.199999999999999</v>
+      </c>
+      <c r="BR37" t="n">
+        <v>14.62540334855406</v>
+      </c>
+      <c r="BS37" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="BT37" t="n">
+        <v>60.06409436834115</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>395</v>
+      </c>
+      <c r="BV37" t="n">
+        <v>47.36441741357262</v>
+      </c>
+      <c r="BW37" t="n">
+        <v>41.65045130641335</v>
+      </c>
+      <c r="BX37" t="n">
+        <v>53.98382271468152</v>
+      </c>
+      <c r="BY37" t="n">
+        <v>4.306722131599711</v>
+      </c>
+      <c r="BZ37" t="n">
+        <v>-12.69967695476853</v>
+      </c>
+      <c r="CA37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -8493,10 +9623,10 @@
         <v>19.34987146529574</v>
       </c>
       <c r="BK38" t="n">
-        <v>14.44509893455104</v>
+        <v>19.97703087885988</v>
       </c>
       <c r="BL38" t="n">
-        <v>19.97703087885988</v>
+        <v>18.6323184357542</v>
       </c>
       <c r="BM38" t="n">
         <v>3.7</v>
@@ -8512,6 +9642,36 @@
       </c>
       <c r="BQ38" t="n">
         <v>3.789999999999999</v>
+      </c>
+      <c r="BR38" t="n">
+        <v>14.44091047040973</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="BT38" t="n">
+        <v>60.08984825493182</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>330</v>
+      </c>
+      <c r="BV38" t="n">
+        <v>51.64781491002609</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>46.70700712589075</v>
+      </c>
+      <c r="BX38" t="n">
+        <v>57.4280726256985</v>
+      </c>
+      <c r="BY38" t="n">
+        <v>4.908960994886009</v>
+      </c>
+      <c r="BZ38" t="n">
+        <v>-8.442033344905724</v>
+      </c>
+      <c r="CA38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -8702,10 +9862,10 @@
         <v>18.83594110115246</v>
       </c>
       <c r="BK39" t="n">
-        <v>14.63525037936269</v>
+        <v>18.67909738717342</v>
       </c>
       <c r="BL39" t="n">
-        <v>18.67909738717342</v>
+        <v>19.02955678670363</v>
       </c>
       <c r="BM39" t="n">
         <v>5.933333333333334</v>
@@ -8721,6 +9881,36 @@
       </c>
       <c r="BQ39" t="n">
         <v>2</v>
+      </c>
+      <c r="BR39" t="n">
+        <v>14.6308345978756</v>
+      </c>
+      <c r="BS39" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BT39" t="n">
+        <v>64.36867981790598</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>135</v>
+      </c>
+      <c r="BV39" t="n">
+        <v>47.70805377720904</v>
+      </c>
+      <c r="BW39" t="n">
+        <v>44.495296912114</v>
+      </c>
+      <c r="BX39" t="n">
+        <v>51.40930747922452</v>
+      </c>
+      <c r="BY39" t="n">
+        <v>4.205106503276868</v>
+      </c>
+      <c r="BZ39" t="n">
+        <v>-16.66062604069695</v>
+      </c>
+      <c r="CA39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -8911,10 +10101,10 @@
         <v>16.92784793814437</v>
       </c>
       <c r="BK40" t="n">
-        <v>14.65681335356603</v>
+        <v>17.77196642685854</v>
       </c>
       <c r="BL40" t="n">
-        <v>17.77196642685854</v>
+        <v>15.96358333333334</v>
       </c>
       <c r="BM40" t="n">
         <v>7.516666666666667</v>
@@ -8930,6 +10120,36 @@
       </c>
       <c r="BQ40" t="n">
         <v>-4</v>
+      </c>
+      <c r="BR40" t="n">
+        <v>14.62112291350534</v>
+      </c>
+      <c r="BS40" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BT40" t="n">
+        <v>64.42115326251917</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>84</v>
+      </c>
+      <c r="BV40" t="n">
+        <v>61.51896907216513</v>
+      </c>
+      <c r="BW40" t="n">
+        <v>58.43781774580349</v>
+      </c>
+      <c r="BX40" t="n">
+        <v>65.06125000000013</v>
+      </c>
+      <c r="BY40" t="n">
+        <v>2.306725024639031</v>
+      </c>
+      <c r="BZ40" t="n">
+        <v>-2.902184190354035</v>
+      </c>
+      <c r="CA40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -9120,10 +10340,10 @@
         <v>19.78560256410267</v>
       </c>
       <c r="BK41" t="n">
-        <v>14.60555386949925</v>
+        <v>20.33447619047622</v>
       </c>
       <c r="BL41" t="n">
-        <v>20.33447619047622</v>
+        <v>19.15759002770085</v>
       </c>
       <c r="BM41" t="n">
         <v>9.25</v>
@@ -9139,6 +10359,36 @@
       </c>
       <c r="BQ41" t="n">
         <v>-0.3999999999999986</v>
+      </c>
+      <c r="BR41" t="n">
+        <v>14.6261491628615</v>
+      </c>
+      <c r="BS41" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="BT41" t="n">
+        <v>65.88809741248095</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>70</v>
+      </c>
+      <c r="BV41" t="n">
+        <v>54.75774358974402</v>
+      </c>
+      <c r="BW41" t="n">
+        <v>54.27264285714286</v>
+      </c>
+      <c r="BX41" t="n">
+        <v>55.29313019390599</v>
+      </c>
+      <c r="BY41" t="n">
+        <v>5.159453401241164</v>
+      </c>
+      <c r="BZ41" t="n">
+        <v>-11.13035382273693</v>
+      </c>
+      <c r="CA41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -9329,10 +10579,10 @@
         <v>18.52952319587636</v>
       </c>
       <c r="BK42" t="n">
-        <v>14.60348554033488</v>
+        <v>18.5841904761905</v>
       </c>
       <c r="BL42" t="n">
-        <v>18.5841904761905</v>
+        <v>18.48022408963585</v>
       </c>
       <c r="BM42" t="n">
         <v>9.783333333333333</v>
@@ -9348,6 +10598,36 @@
       </c>
       <c r="BQ42" t="n">
         <v>-1</v>
+      </c>
+      <c r="BR42" t="n">
+        <v>14.58110773899852</v>
+      </c>
+      <c r="BS42" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="BT42" t="n">
+        <v>68.18871016691962</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>49</v>
+      </c>
+      <c r="BV42" t="n">
+        <v>57.2225902061859</v>
+      </c>
+      <c r="BW42" t="n">
+        <v>55.35657142857145</v>
+      </c>
+      <c r="BX42" t="n">
+        <v>59.38308123249318</v>
+      </c>
+      <c r="BY42" t="n">
+        <v>3.948415456877841</v>
+      </c>
+      <c r="BZ42" t="n">
+        <v>-10.96611996073372</v>
+      </c>
+      <c r="CA42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -9538,10 +10818,10 @@
         <v>18.03536491677346</v>
       </c>
       <c r="BK43" t="n">
-        <v>14.70245827010625</v>
+        <v>18.20781472684087</v>
       </c>
       <c r="BL43" t="n">
-        <v>18.20781472684087</v>
+        <v>17.85105263157896</v>
       </c>
       <c r="BM43" t="n">
         <v>9.199999999999999</v>
@@ -9557,6 +10837,36 @@
       </c>
       <c r="BQ43" t="n">
         <v>0</v>
+      </c>
+      <c r="BR43" t="n">
+        <v>14.77346036585373</v>
+      </c>
+      <c r="BS43" t="n">
+        <v>10.93333333333333</v>
+      </c>
+      <c r="BT43" t="n">
+        <v>61.69445121951224</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>166</v>
+      </c>
+      <c r="BV43" t="n">
+        <v>56.56688860435368</v>
+      </c>
+      <c r="BW43" t="n">
+        <v>52.33885985748222</v>
+      </c>
+      <c r="BX43" t="n">
+        <v>61.46030470914145</v>
+      </c>
+      <c r="BY43" t="n">
+        <v>3.261904550919722</v>
+      </c>
+      <c r="BZ43" t="n">
+        <v>-5.12756261515856</v>
+      </c>
+      <c r="CA43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -9747,10 +11057,10 @@
         <v>17.85508519003935</v>
       </c>
       <c r="BK44" t="n">
-        <v>14.7310823170732</v>
+        <v>17.11411057692312</v>
       </c>
       <c r="BL44" t="n">
-        <v>17.11411057692312</v>
+        <v>18.75675287356322</v>
       </c>
       <c r="BM44" t="n">
         <v>4.1</v>
@@ -9766,6 +11076,36 @@
       </c>
       <c r="BQ44" t="n">
         <v>2.890000000000001</v>
+      </c>
+      <c r="BR44" t="n">
+        <v>14.6704704097117</v>
+      </c>
+      <c r="BS44" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BT44" t="n">
+        <v>67.24634294385449</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>286</v>
+      </c>
+      <c r="BV44" t="n">
+        <v>48.96905635648794</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>46.4525721153847</v>
+      </c>
+      <c r="BX44" t="n">
+        <v>51.96382183908061</v>
+      </c>
+      <c r="BY44" t="n">
+        <v>3.184614780327648</v>
+      </c>
+      <c r="BZ44" t="n">
+        <v>-18.27728658736655</v>
+      </c>
+      <c r="CA44" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -9956,10 +11296,10 @@
         <v>19.56557419354849</v>
       </c>
       <c r="BK45" t="n">
-        <v>14.62402735562312</v>
+        <v>21.20012019230772</v>
       </c>
       <c r="BL45" t="n">
-        <v>21.20012019230772</v>
+        <v>17.69127777777781</v>
       </c>
       <c r="BM45" t="n">
         <v>18.18333333333333</v>
@@ -9975,6 +11315,36 @@
       </c>
       <c r="BQ45" t="n">
         <v>0.8900000000000006</v>
+      </c>
+      <c r="BR45" t="n">
+        <v>14.62088280060886</v>
+      </c>
+      <c r="BS45" t="n">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="BT45" t="n">
+        <v>74.03555555555582</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>149</v>
+      </c>
+      <c r="BV45" t="n">
+        <v>66.19723870967768</v>
+      </c>
+      <c r="BW45" t="n">
+        <v>63.98322115384615</v>
+      </c>
+      <c r="BX45" t="n">
+        <v>68.7320555555557</v>
+      </c>
+      <c r="BY45" t="n">
+        <v>4.944691392939625</v>
+      </c>
+      <c r="BZ45" t="n">
+        <v>-7.83831684587814</v>
+      </c>
+      <c r="CA45" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -10165,10 +11535,10 @@
         <v>18.75820876288666</v>
       </c>
       <c r="BK46" t="n">
-        <v>14.62339421613397</v>
+        <v>19.4564028776979</v>
       </c>
       <c r="BL46" t="n">
-        <v>19.4564028776979</v>
+        <v>17.96761111111113</v>
       </c>
       <c r="BM46" t="n">
         <v>16.43333333333333</v>
@@ -10184,6 +11554,36 @@
       </c>
       <c r="BQ46" t="n">
         <v>0.6000000000000014</v>
+      </c>
+      <c r="BR46" t="n">
+        <v>14.58992401215805</v>
+      </c>
+      <c r="BS46" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="BT46" t="n">
+        <v>73.28787234042576</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>160</v>
+      </c>
+      <c r="BV46" t="n">
+        <v>61.83331185567024</v>
+      </c>
+      <c r="BW46" t="n">
+        <v>54.79657074340537</v>
+      </c>
+      <c r="BX46" t="n">
+        <v>69.95213888888908</v>
+      </c>
+      <c r="BY46" t="n">
+        <v>4.168284750728615</v>
+      </c>
+      <c r="BZ46" t="n">
+        <v>-11.45456048475553</v>
+      </c>
+      <c r="CA46" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -10374,10 +11774,10 @@
         <v>17.36130154639181</v>
       </c>
       <c r="BK47" t="n">
-        <v>14.64557077625576</v>
+        <v>18.06774580335737</v>
       </c>
       <c r="BL47" t="n">
-        <v>18.06774580335737</v>
+        <v>16.56033333333335</v>
       </c>
       <c r="BM47" t="n">
         <v>17.5</v>
@@ -10393,6 +11793,36 @@
       </c>
       <c r="BQ47" t="n">
         <v>-0.8000000000000007</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>14.64984709480127</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>10.86666666666667</v>
+      </c>
+      <c r="BT47" t="n">
+        <v>67.90585626911319</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>157</v>
+      </c>
+      <c r="BV47" t="n">
+        <v>60.82914948453617</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>51.52345323741011</v>
+      </c>
+      <c r="BX47" t="n">
+        <v>71.54816666666673</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>2.711454451590537</v>
+      </c>
+      <c r="BZ47" t="n">
+        <v>-7.07670678457702</v>
+      </c>
+      <c r="CA47" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -10583,10 +12013,10 @@
         <v>18.77234979973307</v>
       </c>
       <c r="BK48" t="n">
-        <v>14.63551829268295</v>
+        <v>18.27027295285362</v>
       </c>
       <c r="BL48" t="n">
-        <v>18.27027295285362</v>
+        <v>19.36126801152738</v>
       </c>
       <c r="BM48" t="n">
         <v>14.58333333333333</v>
@@ -10602,6 +12032,36 @@
       </c>
       <c r="BQ48" t="n">
         <v>2</v>
+      </c>
+      <c r="BR48" t="n">
+        <v>14.7207294832827</v>
+      </c>
+      <c r="BS48" t="n">
+        <v>10.96666666666667</v>
+      </c>
+      <c r="BT48" t="n">
+        <v>67.57796352583595</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>281</v>
+      </c>
+      <c r="BV48" t="n">
+        <v>49.41152202937276</v>
+      </c>
+      <c r="BW48" t="n">
+        <v>42.04079404466502</v>
+      </c>
+      <c r="BX48" t="n">
+        <v>57.90342939481278</v>
+      </c>
+      <c r="BY48" t="n">
+        <v>4.051620316450363</v>
+      </c>
+      <c r="BZ48" t="n">
+        <v>-18.16644149646319</v>
+      </c>
+      <c r="CA48" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -10792,10 +12252,10 @@
         <v>18.64842592592602</v>
       </c>
       <c r="BK49" t="n">
-        <v>14.65730886850154</v>
+        <v>18.09147783251234</v>
       </c>
       <c r="BL49" t="n">
-        <v>18.09147783251234</v>
+        <v>19.30900284900285</v>
       </c>
       <c r="BM49" t="n">
         <v>14.91666666666667</v>
@@ -10811,6 +12271,36 @@
       </c>
       <c r="BQ49" t="n">
         <v>1.890000000000001</v>
+      </c>
+      <c r="BR49" t="n">
+        <v>14.59126153846158</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BT49" t="n">
+        <v>75.51826153846166</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>218</v>
+      </c>
+      <c r="BV49" t="n">
+        <v>53.79981481481511</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>49.20044334975369</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>59.0922222222224</v>
+      </c>
+      <c r="BY49" t="n">
+        <v>4.057164387464443</v>
+      </c>
+      <c r="BZ49" t="n">
+        <v>-21.71844672364654</v>
+      </c>
+      <c r="CA49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -11001,10 +12491,10 @@
         <v>14.97379128137384</v>
       </c>
       <c r="BK50" t="n">
-        <v>14.59336906584996</v>
+        <v>14.94725060827253</v>
       </c>
       <c r="BL50" t="n">
-        <v>14.94725060827253</v>
+        <v>15.0099135446686</v>
       </c>
       <c r="BM50" t="n">
         <v>22.88333333333333</v>
@@ -11020,6 +12510,36 @@
       </c>
       <c r="BQ50" t="n">
         <v>-8.5</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>14.55294656488551</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>3.283333333333333</v>
+      </c>
+      <c r="BT50" t="n">
+        <v>79.18082442748111</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV50" t="n">
+        <v>80.06574636723937</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>80.59413625304123</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>79.44403458213253</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>0.4208447164883289</v>
+      </c>
+      <c r="BZ50" t="n">
+        <v>0.8849219397582573</v>
+      </c>
+      <c r="CA50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -11210,10 +12730,10 @@
         <v>17.38347469220251</v>
       </c>
       <c r="BK51" t="n">
-        <v>14.6165290519878</v>
+        <v>16.70907692307695</v>
       </c>
       <c r="BL51" t="n">
-        <v>16.70907692307695</v>
+        <v>18.16046783625731</v>
       </c>
       <c r="BM51" t="n">
         <v>16.08333333333333</v>
@@ -11229,6 +12749,36 @@
       </c>
       <c r="BQ51" t="n">
         <v>-1.109999999999999</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>14.68343032159266</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>10.88333333333333</v>
+      </c>
+      <c r="BT51" t="n">
+        <v>69.37108728943345</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>222</v>
+      </c>
+      <c r="BV51" t="n">
+        <v>59.13114911080743</v>
+      </c>
+      <c r="BW51" t="n">
+        <v>54.09207692307692</v>
+      </c>
+      <c r="BX51" t="n">
+        <v>64.81274853801189</v>
+      </c>
+      <c r="BY51" t="n">
+        <v>2.70004437060985</v>
+      </c>
+      <c r="BZ51" t="n">
+        <v>-10.23993817862602</v>
+      </c>
+      <c r="CA51" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -11419,10 +12969,10 @@
         <v>20.06761394101887</v>
       </c>
       <c r="BK52" t="n">
-        <v>14.64012232415904</v>
+        <v>20.5996097560976</v>
       </c>
       <c r="BL52" t="n">
-        <v>20.5996097560976</v>
+        <v>19.42908011869437</v>
       </c>
       <c r="BM52" t="n">
         <v>14.86666666666667</v>
@@ -11438,6 +12988,36 @@
       </c>
       <c r="BQ52" t="n">
         <v>2.600000000000001</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>14.63332826747723</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>10.56666666666667</v>
+      </c>
+      <c r="BT52" t="n">
+        <v>72.42349544072958</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>183</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>53.24597855227916</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>50.87653658536588</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>56.11459940652836</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>5.434285673541636</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>-19.17751688845042</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -11628,10 +13208,10 @@
         <v>21.59217965653911</v>
       </c>
       <c r="BK53" t="n">
-        <v>14.50554198473283</v>
+        <v>22.45572463768119</v>
       </c>
       <c r="BL53" t="n">
-        <v>22.45572463768119</v>
+        <v>20.57619186046512</v>
       </c>
       <c r="BM53" t="n">
         <v>12.98333333333333</v>
@@ -11647,6 +13227,36 @@
       </c>
       <c r="BQ53" t="n">
         <v>4.199999999999999</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>14.23693721286375</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>0.1166666666666667</v>
+      </c>
+      <c r="BT53" t="n">
+        <v>85.69886676875967</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>134</v>
+      </c>
+      <c r="BV53" t="n">
+        <v>51.74368560105719</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>44.79968599033818</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>60.0933139534886</v>
+      </c>
+      <c r="BY53" t="n">
+        <v>7.355242443675357</v>
+      </c>
+      <c r="BZ53" t="n">
+        <v>-33.95518116770248</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -11837,10 +13447,10 @@
         <v>22.39876783398199</v>
       </c>
       <c r="BK54" t="n">
-        <v>14.99856697819317</v>
+        <v>23.96217703349289</v>
       </c>
       <c r="BL54" t="n">
-        <v>23.96217703349289</v>
+        <v>20.56935028248589</v>
       </c>
       <c r="BM54" t="n">
         <v>0.95</v>
@@ -11856,6 +13466,36 @@
       </c>
       <c r="BQ54" t="n">
         <v>5.199999999999999</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>15.725031152648</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="BT54" t="n">
+        <v>87.62954828660467</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>268</v>
+      </c>
+      <c r="BV54" t="n">
+        <v>61.50657587548654</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>52.33370813397141</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>72.28211864406803</v>
+      </c>
+      <c r="BY54" t="n">
+        <v>6.673736681333985</v>
+      </c>
+      <c r="BZ54" t="n">
+        <v>-26.12297241111813</v>
+      </c>
+      <c r="CA54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -12046,10 +13686,10 @@
         <v>15.9526153846154</v>
       </c>
       <c r="BK55" t="n">
-        <v>15.03104134762638</v>
+        <v>16.08931116389554</v>
       </c>
       <c r="BL55" t="n">
-        <v>16.08931116389554</v>
+        <v>15.82372222222226</v>
       </c>
       <c r="BM55" t="n">
         <v>8.5</v>
@@ -12065,6 +13705,36 @@
       </c>
       <c r="BQ55" t="n">
         <v>1.390000000000001</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>14.60425727411947</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>1.433333333333333</v>
+      </c>
+      <c r="BT55" t="n">
+        <v>82.14312404287928</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>209</v>
+      </c>
+      <c r="BV55" t="n">
+        <v>80.24794871794879</v>
+      </c>
+      <c r="BW55" t="n">
+        <v>75.23223277909729</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>86.05061111111101</v>
+      </c>
+      <c r="BY55" t="n">
+        <v>1.348358110495928</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>-1.895175324930491</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -12255,10 +13925,10 @@
         <v>20.80936997319048</v>
       </c>
       <c r="BK56" t="n">
-        <v>14.62633181126335</v>
+        <v>20.80294416243659</v>
       </c>
       <c r="BL56" t="n">
-        <v>20.80294416243659</v>
+        <v>20.83152974504251</v>
       </c>
       <c r="BM56" t="n">
         <v>14.2</v>
@@ -12274,6 +13944,36 @@
       </c>
       <c r="BQ56" t="n">
         <v>2.100000000000001</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>14.52173780487809</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>0.3833333333333334</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>81.56964939024407</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>333</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>56.08042895442387</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>51.63718274111687</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>61.00436260623255</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>6.287632168312385</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>-25.48922043582019</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -12464,10 +14164,10 @@
         <v>17.58049868766409</v>
       </c>
       <c r="BK57" t="n">
-        <v>14.50059907834104</v>
+        <v>17.67061274509807</v>
       </c>
       <c r="BL57" t="n">
-        <v>17.67061274509807</v>
+        <v>17.49388732394366</v>
       </c>
       <c r="BM57" t="n">
         <v>10.25</v>
@@ -12483,6 +14183,36 @@
       </c>
       <c r="BQ57" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>14.48560490045944</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>86.71335375191452</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>265</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>70.64342519685063</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>68.47539215686271</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>73.05245070422548</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>3.094893787204645</v>
+      </c>
+      <c r="BZ57" t="n">
+        <v>-16.0699285550639</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -12673,10 +14403,10 @@
         <v>17.31544966442962</v>
       </c>
       <c r="BK58" t="n">
-        <v>13.34309688581319</v>
+        <v>18.39922500000002</v>
       </c>
       <c r="BL58" t="n">
-        <v>18.39922500000002</v>
+        <v>16.06768786127169</v>
       </c>
       <c r="BM58" t="n">
         <v>11.16666666666667</v>
@@ -12692,6 +14422,36 @@
       </c>
       <c r="BQ58" t="n">
         <v>-3.609999999999999</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>13.35076655052269</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>78.51320557491307</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>331</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>80.61191946308752</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>77.46644999999994</v>
+      </c>
+      <c r="BX58" t="n">
+        <v>84.23641618497103</v>
+      </c>
+      <c r="BY58" t="n">
+        <v>3.964683113906933</v>
+      </c>
+      <c r="BZ58" t="n">
+        <v>2.098713888174444</v>
+      </c>
+      <c r="CA58" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -12882,10 +14642,10 @@
         <v>16.82596026490075</v>
       </c>
       <c r="BK59" t="n">
-        <v>14.71367127496165</v>
+        <v>17.12113861386141</v>
       </c>
       <c r="BL59" t="n">
-        <v>17.12113861386141</v>
+        <v>16.49417613636363</v>
       </c>
       <c r="BM59" t="n">
         <v>13</v>
@@ -12901,6 +14661,36 @@
       </c>
       <c r="BQ59" t="n">
         <v>-3</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>14.858649068323</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>81.31007763975177</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>260</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>75.17300662251655</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>67.47383663366341</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>83.9880113636363</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>1.967311196577755</v>
+      </c>
+      <c r="BZ59" t="n">
+        <v>-6.137071017235215</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -13091,10 +14881,10 @@
         <v>17.61435197817199</v>
       </c>
       <c r="BK60" t="n">
-        <v>14.78393188854492</v>
+        <v>18.51722921914359</v>
       </c>
       <c r="BL60" t="n">
-        <v>18.51722921914359</v>
+        <v>16.57175074183976</v>
       </c>
       <c r="BM60" t="n">
         <v>13.2</v>
@@ -13110,6 +14900,36 @@
       </c>
       <c r="BQ60" t="n">
         <v>-1.210000000000001</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>14.67138719512198</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>84.20871951219536</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>295</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>67.42215552523857</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>57.64287153652397</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>78.91370919881307</v>
+      </c>
+      <c r="BY60" t="n">
+        <v>2.942964783050005</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>-16.78656398695679</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -13300,10 +15120,10 @@
         <v>19.56859078590796</v>
       </c>
       <c r="BK61" t="n">
-        <v>14.64162327718226</v>
+        <v>20.05059278350517</v>
       </c>
       <c r="BL61" t="n">
-        <v>20.05059278350517</v>
+        <v>19.04809116809119</v>
       </c>
       <c r="BM61" t="n">
         <v>7.3</v>
@@ -13319,6 +15139,36 @@
       </c>
       <c r="BQ61" t="n">
         <v>0</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>14.76701078582436</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>83.87882896764278</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>171</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>66.06401084010859</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>59.2034793814434</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>73.59911680911702</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>4.801580000083602</v>
+      </c>
+      <c r="BZ61" t="n">
+        <v>-17.81481812753418</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -13509,10 +15359,10 @@
         <v>19.45542817679571</v>
       </c>
       <c r="BK62" t="n">
-        <v>13.22500000000004</v>
+        <v>20.78730769230772</v>
       </c>
       <c r="BL62" t="n">
-        <v>20.78730769230772</v>
+        <v>17.92650746268657</v>
       </c>
       <c r="BM62" t="n">
         <v>8.383333333333333</v>
@@ -13528,6 +15378,36 @@
       </c>
       <c r="BQ62" t="n">
         <v>1.890000000000001</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>13.08337579617839</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>76.80807324840764</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>388</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>61.24653314917146</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>52.6762564102565</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>71.17895522388076</v>
+      </c>
+      <c r="BY62" t="n">
+        <v>6.372052380617319</v>
+      </c>
+      <c r="BZ62" t="n">
+        <v>-15.56154009923618</v>
+      </c>
+      <c r="CA62" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -13718,10 +15598,10 @@
         <v>21.38297783933528</v>
       </c>
       <c r="BK63" t="n">
-        <v>13.8501428571429</v>
+        <v>22.49555844155842</v>
       </c>
       <c r="BL63" t="n">
-        <v>22.49555844155842</v>
+        <v>20.13852071005918</v>
       </c>
       <c r="BM63" t="n">
         <v>3.633333333333333</v>
@@ -13736,6 +15616,36 @@
         <v>-16</v>
       </c>
       <c r="BQ63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>13.32506717850292</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT63" t="n">
+        <v>81.13065259117094</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>343</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>62.66336565096976</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>58.32745454545464</v>
+      </c>
+      <c r="BX63" t="n">
+        <v>67.56739644970438</v>
+      </c>
+      <c r="BY63" t="n">
+        <v>8.057910660832359</v>
+      </c>
+      <c r="BZ63" t="n">
+        <v>-18.46728694020118</v>
+      </c>
+      <c r="CA63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13927,10 +15837,10 @@
         <v>23.62749658002746</v>
       </c>
       <c r="BK64" t="n">
-        <v>8.245491525423732</v>
+        <v>24.53140000000005</v>
       </c>
       <c r="BL64" t="n">
-        <v>24.53140000000005</v>
+        <v>22.55280120481929</v>
       </c>
       <c r="BM64" t="n">
         <v>0.6333333333333333</v>
@@ -13946,6 +15856,36 @@
       </c>
       <c r="BQ64" t="n">
         <v>4.600000000000001</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>4.815940438871475</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT64" t="n">
+        <v>29.04843260188085</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>433</v>
+      </c>
+      <c r="BV64" t="n">
+        <v>57.27495212038311</v>
+      </c>
+      <c r="BW64" t="n">
+        <v>50.62502500000014</v>
+      </c>
+      <c r="BX64" t="n">
+        <v>65.26861445783157</v>
+      </c>
+      <c r="BY64" t="n">
+        <v>18.81155614115599</v>
+      </c>
+      <c r="BZ64" t="n">
+        <v>28.22651951850226</v>
+      </c>
+      <c r="CA64" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -14136,10 +16076,10 @@
         <v>12.86630136986307</v>
       </c>
       <c r="BK65" t="n">
-        <v>5.617458745874591</v>
+        <v>9.541042780748652</v>
       </c>
       <c r="BL65" t="n">
-        <v>9.541042780748652</v>
+        <v>16.36596638655463</v>
       </c>
       <c r="BM65" t="n">
         <v>0.1833333333333333</v>
@@ -14155,6 +16095,36 @@
       </c>
       <c r="BQ65" t="n">
         <v>-5.800000000000001</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>5.253674242424237</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT65" t="n">
+        <v>32.78594696969697</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>560</v>
+      </c>
+      <c r="BV65" t="n">
+        <v>69.11130136986314</v>
+      </c>
+      <c r="BW65" t="n">
+        <v>47.59294117647055</v>
+      </c>
+      <c r="BX65" t="n">
+        <v>91.71619047619042</v>
+      </c>
+      <c r="BY65" t="n">
+        <v>7.612627127438833</v>
+      </c>
+      <c r="BZ65" t="n">
+        <v>36.32535440016617</v>
+      </c>
+      <c r="CA65" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -14345,10 +16315,10 @@
         <v>12.00618045112784</v>
       </c>
       <c r="BK66" t="n">
-        <v>10.82731578947371</v>
+        <v>13.20269565217391</v>
       </c>
       <c r="BL66" t="n">
-        <v>13.20269565217391</v>
+        <v>10.71618749999999</v>
       </c>
       <c r="BM66" t="n">
         <v>2.083333333333333</v>
@@ -14364,6 +16334,36 @@
       </c>
       <c r="BQ66" t="n">
         <v>-0.8000000000000007</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>15.01616564417181</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT66" t="n">
+        <v>84.27019938650329</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>784</v>
+      </c>
+      <c r="BV66" t="n">
+        <v>35.65974436090242</v>
+      </c>
+      <c r="BW66" t="n">
+        <v>34.95608695652174</v>
+      </c>
+      <c r="BX66" t="n">
+        <v>36.41837500000005</v>
+      </c>
+      <c r="BY66" t="n">
+        <v>-3.009985193043967</v>
+      </c>
+      <c r="BZ66" t="n">
+        <v>-48.61045502560087</v>
+      </c>
+      <c r="CA66" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -14554,10 +16554,10 @@
         <v>6.18033707865168</v>
       </c>
       <c r="BK67" t="n">
-        <v>9.237756714060048</v>
+        <v>1.07992628992629</v>
       </c>
       <c r="BL67" t="n">
-        <v>1.07992628992629</v>
+        <v>12.94401960784312</v>
       </c>
       <c r="BM67" t="n">
         <v>6.8</v>
@@ -14573,6 +16573,36 @@
       </c>
       <c r="BQ67" t="n">
         <v>-0.7100000000000009</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>2.665728476821195</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT67" t="n">
+        <v>15.46100993377483</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>473</v>
+      </c>
+      <c r="BV67" t="n">
+        <v>24.43473314606744</v>
+      </c>
+      <c r="BW67" t="n">
+        <v>2.282088452088452</v>
+      </c>
+      <c r="BX67" t="n">
+        <v>53.81934640522877</v>
+      </c>
+      <c r="BY67" t="n">
+        <v>3.514608601830485</v>
+      </c>
+      <c r="BZ67" t="n">
+        <v>8.973723212292612</v>
+      </c>
+      <c r="CA67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -14763,10 +16793,10 @@
         <v>10.2766937669377</v>
       </c>
       <c r="BK68" t="n">
-        <v>8.64020866773674</v>
+        <v>14.07450495049506</v>
       </c>
       <c r="BL68" t="n">
-        <v>14.07450495049506</v>
+        <v>5.721194029850749</v>
       </c>
       <c r="BM68" t="n">
         <v>4.5</v>
@@ -14782,6 +16812,36 @@
       </c>
       <c r="BQ68" t="n">
         <v>-6.899999999999999</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>14.34765527950321</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT68" t="n">
+        <v>91.16537267080813</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>481</v>
+      </c>
+      <c r="BV68" t="n">
+        <v>54.07644986449861</v>
+      </c>
+      <c r="BW68" t="n">
+        <v>73.94628712871281</v>
+      </c>
+      <c r="BX68" t="n">
+        <v>30.18122388059701</v>
+      </c>
+      <c r="BY68" t="n">
+        <v>-4.070961512565516</v>
+      </c>
+      <c r="BZ68" t="n">
+        <v>-37.08892280630952</v>
+      </c>
+      <c r="CA68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -14972,10 +17032,10 @@
         <v>12.92572379367722</v>
       </c>
       <c r="BK69" t="n">
-        <v>14.26362153344211</v>
+        <v>10.62967845659164</v>
       </c>
       <c r="BL69" t="n">
-        <v>10.62967845659164</v>
+        <v>15.38803448275861</v>
       </c>
       <c r="BM69" t="n">
         <v>0.6333333333333333</v>
@@ -14991,6 +17051,36 @@
       </c>
       <c r="BQ69" t="n">
         <v>-6.109999999999999</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>14.46752107925804</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT69" t="n">
+        <v>88.19037099494099</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>689</v>
+      </c>
+      <c r="BV69" t="n">
+        <v>69.3662728785359</v>
+      </c>
+      <c r="BW69" t="n">
+        <v>56.26434083601279</v>
+      </c>
+      <c r="BX69" t="n">
+        <v>83.41696551724131</v>
+      </c>
+      <c r="BY69" t="n">
+        <v>-1.541797285580822</v>
+      </c>
+      <c r="BZ69" t="n">
+        <v>-18.8240981164051</v>
+      </c>
+      <c r="CA69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -15181,10 +17271,10 @@
         <v>16.75893617021281</v>
       </c>
       <c r="BK70" t="n">
-        <v>14.78251612903229</v>
+        <v>16.9048806366048</v>
       </c>
       <c r="BL70" t="n">
-        <v>16.9048806366048</v>
+        <v>16.59118902439025</v>
       </c>
       <c r="BM70" t="n">
         <v>2.766666666666667</v>
@@ -15200,6 +17290,36 @@
       </c>
       <c r="BQ70" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>14.97909090909096</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT70" t="n">
+        <v>87.34540832049323</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>367</v>
+      </c>
+      <c r="BV70" t="n">
+        <v>66.03815602836926</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>64.59912466843498</v>
+      </c>
+      <c r="BX70" t="n">
+        <v>67.69216463414656</v>
+      </c>
+      <c r="BY70" t="n">
+        <v>1.779845261121849</v>
+      </c>
+      <c r="BZ70" t="n">
+        <v>-21.30725229212398</v>
+      </c>
+      <c r="CA70" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -15390,10 +17510,10 @@
         <v>16.2457772020726</v>
       </c>
       <c r="BK71" t="n">
-        <v>15.05655487804882</v>
+        <v>16.55392344497609</v>
       </c>
       <c r="BL71" t="n">
-        <v>16.55392344497609</v>
+        <v>15.89461971830989</v>
       </c>
       <c r="BM71" t="n">
         <v>5.433333333333334</v>
@@ -15409,6 +17529,36 @@
       </c>
       <c r="BQ71" t="n">
         <v>-5</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>14.81984375000003</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT71" t="n">
+        <v>86.5184375000002</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>61</v>
+      </c>
+      <c r="BV71" t="n">
+        <v>87.16454663212464</v>
+      </c>
+      <c r="BW71" t="n">
+        <v>87.15153110047841</v>
+      </c>
+      <c r="BX71" t="n">
+        <v>87.1703943661971</v>
+      </c>
+      <c r="BY71" t="n">
+        <v>1.425933452072567</v>
+      </c>
+      <c r="BZ71" t="n">
+        <v>0.6461091321244368</v>
+      </c>
+      <c r="CA71" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -15599,10 +17749,10 @@
         <v>16.00754464285718</v>
       </c>
       <c r="BK72" t="n">
-        <v>8.033511811023631</v>
+        <v>17.65573298429319</v>
       </c>
       <c r="BL72" t="n">
-        <v>17.65573298429319</v>
+        <v>13.86243986254293</v>
       </c>
       <c r="BM72" t="n">
         <v>2.35</v>
@@ -15618,6 +17768,36 @@
       </c>
       <c r="BQ72" t="n">
         <v>-1.800000000000001</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>0.08660522273425499</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT72" t="n">
+        <v>0.5370199692780339</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>664</v>
+      </c>
+      <c r="BV72" t="n">
+        <v>53.83382440476221</v>
+      </c>
+      <c r="BW72" t="n">
+        <v>55.12712041884828</v>
+      </c>
+      <c r="BX72" t="n">
+        <v>52.16037800687291</v>
+      </c>
+      <c r="BY72" t="n">
+        <v>15.92093942012293</v>
+      </c>
+      <c r="BZ72" t="n">
+        <v>53.29680443548418</v>
+      </c>
+      <c r="CA72" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -15808,10 +17988,10 @@
         <v>14.23500648508436</v>
       </c>
       <c r="BK73" t="n">
-        <v>4.135873015873013</v>
+        <v>19.75628640776702</v>
       </c>
       <c r="BL73" t="n">
-        <v>19.75628640776702</v>
+        <v>7.933888888888881</v>
       </c>
       <c r="BM73" t="n">
         <v>3.1</v>
@@ -15827,6 +18007,36 @@
       </c>
       <c r="BQ73" t="n">
         <v>-1.899999999999999</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>10.93432565789475</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT73" t="n">
+        <v>60.14138157894739</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>359</v>
+      </c>
+      <c r="BV73" t="n">
+        <v>43.29356679636857</v>
+      </c>
+      <c r="BW73" t="n">
+        <v>57.1210194174758</v>
+      </c>
+      <c r="BX73" t="n">
+        <v>27.51130555555557</v>
+      </c>
+      <c r="BY73" t="n">
+        <v>3.300680827189607</v>
+      </c>
+      <c r="BZ73" t="n">
+        <v>-16.84781478257882</v>
+      </c>
+      <c r="CA73" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -16017,10 +18227,10 @@
         <v>16.44654353562016</v>
       </c>
       <c r="BK74" t="n">
-        <v>6.34610675039246</v>
+        <v>19.03349009900993</v>
       </c>
       <c r="BL74" t="n">
-        <v>19.03349009900993</v>
+        <v>13.51645070422534</v>
       </c>
       <c r="BM74" t="n">
         <v>4.55</v>
@@ -16036,6 +18246,36 @@
       </c>
       <c r="BQ74" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="BR74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>541</v>
+      </c>
+      <c r="BV74" t="n">
+        <v>52.09453825857543</v>
+      </c>
+      <c r="BW74" t="n">
+        <v>57.24853960396046</v>
+      </c>
+      <c r="BX74" t="n">
+        <v>46.27056338028173</v>
+      </c>
+      <c r="BY74" t="n">
+        <v>16.44654353562016</v>
+      </c>
+      <c r="BZ74" t="n">
+        <v>52.09453825857543</v>
+      </c>
+      <c r="CA74" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -16226,10 +18466,10 @@
         <v>16.00508287292826</v>
       </c>
       <c r="BK75" t="n">
-        <v>0</v>
+        <v>21.47843835616441</v>
       </c>
       <c r="BL75" t="n">
-        <v>21.47843835616441</v>
+        <v>10.47316666666665</v>
       </c>
       <c r="BM75" t="n">
         <v>2.466666666666667</v>
@@ -16245,6 +18485,36 @@
       </c>
       <c r="BQ75" t="n">
         <v>1.100000000000001</v>
+      </c>
+      <c r="BR75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>296</v>
+      </c>
+      <c r="BV75" t="n">
+        <v>47.22259668508307</v>
+      </c>
+      <c r="BW75" t="n">
+        <v>55.02046575342478</v>
+      </c>
+      <c r="BX75" t="n">
+        <v>39.34552777777775</v>
+      </c>
+      <c r="BY75" t="n">
+        <v>16.00508287292826</v>
+      </c>
+      <c r="BZ75" t="n">
+        <v>47.22259668508307</v>
+      </c>
+      <c r="CA75" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -16455,6 +18725,36 @@
       <c r="BQ76" t="n">
         <v>-26</v>
       </c>
+      <c r="BR76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA76" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -16664,6 +18964,36 @@
       <c r="BQ77" t="n">
         <v>-26</v>
       </c>
+      <c r="BR77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA77" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -16853,10 +19183,10 @@
         <v>9.596343085106394</v>
       </c>
       <c r="BK78" t="n">
-        <v>6.944954407294843</v>
+        <v>23.05365155131271</v>
       </c>
       <c r="BL78" t="n">
-        <v>23.05365155131271</v>
+        <v>-7.237245508982035</v>
       </c>
       <c r="BM78" t="n">
         <v>2.083333333333333</v>
@@ -16872,6 +19202,36 @@
       </c>
       <c r="BQ78" t="n">
         <v>0.7899999999999991</v>
+      </c>
+      <c r="BR78" t="n">
+        <v>14.83015313935685</v>
+      </c>
+      <c r="BS78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT78" t="n">
+        <v>91.83009188361433</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>88</v>
+      </c>
+      <c r="BV78" t="n">
+        <v>42.47660904255332</v>
+      </c>
+      <c r="BW78" t="n">
+        <v>61.98119331742252</v>
+      </c>
+      <c r="BX78" t="n">
+        <v>18.04754491017963</v>
+      </c>
+      <c r="BY78" t="n">
+        <v>-5.233810054250455</v>
+      </c>
+      <c r="BZ78" t="n">
+        <v>-49.35348284106101</v>
+      </c>
+      <c r="CA78" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -17062,10 +19422,10 @@
         <v>20.37248711340214</v>
       </c>
       <c r="BK79" t="n">
-        <v>14.7822852760736</v>
+        <v>22.17264285714295</v>
       </c>
       <c r="BL79" t="n">
-        <v>22.17264285714295</v>
+        <v>18.26397759103642</v>
       </c>
       <c r="BM79" t="n">
         <v>6.3</v>
@@ -17081,6 +19441,36 @@
       </c>
       <c r="BQ79" t="n">
         <v>0.7899999999999991</v>
+      </c>
+      <c r="BR79" t="n">
+        <v>14.99357251908402</v>
+      </c>
+      <c r="BS79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT79" t="n">
+        <v>93.22192366412229</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV79" t="n">
+        <v>82.36095360824758</v>
+      </c>
+      <c r="BW79" t="n">
+        <v>77.11519047619048</v>
+      </c>
+      <c r="BX79" t="n">
+        <v>88.51235294117637</v>
+      </c>
+      <c r="BY79" t="n">
+        <v>5.37891459431812</v>
+      </c>
+      <c r="BZ79" t="n">
+        <v>-10.8609700558747</v>
+      </c>
+      <c r="CA79" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -17271,10 +19661,10 @@
         <v>22.53429139072858</v>
       </c>
       <c r="BK80" t="n">
-        <v>14.92398473282447</v>
+        <v>24.80323600973245</v>
       </c>
       <c r="BL80" t="n">
-        <v>24.80323600973245</v>
+        <v>19.84191304347827</v>
       </c>
       <c r="BM80" t="n">
         <v>4.05</v>
@@ -17290,6 +19680,36 @@
       </c>
       <c r="BQ80" t="n">
         <v>1.890000000000001</v>
+      </c>
+      <c r="BR80" t="n">
+        <v>14.8750917431193</v>
+      </c>
+      <c r="BS80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT80" t="n">
+        <v>91.96282874617761</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>40</v>
+      </c>
+      <c r="BV80" t="n">
+        <v>68.96903311258271</v>
+      </c>
+      <c r="BW80" t="n">
+        <v>60.4492214111924</v>
+      </c>
+      <c r="BX80" t="n">
+        <v>79.11243478260876</v>
+      </c>
+      <c r="BY80" t="n">
+        <v>7.659199647609279</v>
+      </c>
+      <c r="BZ80" t="n">
+        <v>-22.9937956335949</v>
+      </c>
+      <c r="CA80" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -17480,10 +19900,10 @@
         <v>21.42373806275592</v>
       </c>
       <c r="BK81" t="n">
-        <v>13.21113114754104</v>
+        <v>22.34732804232807</v>
       </c>
       <c r="BL81" t="n">
-        <v>22.34732804232807</v>
+        <v>20.4601404494382</v>
       </c>
       <c r="BM81" t="n">
         <v>2.283333333333333</v>
@@ -17499,6 +19919,36 @@
       </c>
       <c r="BQ81" t="n">
         <v>1.699999999999999</v>
+      </c>
+      <c r="BR81" t="n">
+        <v>12.65945155393058</v>
+      </c>
+      <c r="BS81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT81" t="n">
+        <v>79.5188848263255</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>203</v>
+      </c>
+      <c r="BV81" t="n">
+        <v>61.79338335607072</v>
+      </c>
+      <c r="BW81" t="n">
+        <v>45.20153439153453</v>
+      </c>
+      <c r="BX81" t="n">
+        <v>79.41789325842694</v>
+      </c>
+      <c r="BY81" t="n">
+        <v>8.764286508825336</v>
+      </c>
+      <c r="BZ81" t="n">
+        <v>-17.72550147025478</v>
+      </c>
+      <c r="CA81" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -17689,10 +20139,10 @@
         <v>17.68112535612542</v>
       </c>
       <c r="BK82" t="n">
-        <v>14.88720970537261</v>
+        <v>22.05058510638302</v>
       </c>
       <c r="BL82" t="n">
-        <v>22.05058510638302</v>
+        <v>12.66767584097857</v>
       </c>
       <c r="BM82" t="n">
         <v>7.083333333333333</v>
@@ -17708,6 +20158,36 @@
       </c>
       <c r="BQ82" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="BR82" t="n">
+        <v>14.24385642737899</v>
+      </c>
+      <c r="BS82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT82" t="n">
+        <v>87.35814691151958</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>436</v>
+      </c>
+      <c r="BV82" t="n">
+        <v>66.66793447293456</v>
+      </c>
+      <c r="BW82" t="n">
+        <v>74.46172872340422</v>
+      </c>
+      <c r="BX82" t="n">
+        <v>57.74914373088681</v>
+      </c>
+      <c r="BY82" t="n">
+        <v>3.437268928746438</v>
+      </c>
+      <c r="BZ82" t="n">
+        <v>-20.69021243858502</v>
+      </c>
+      <c r="CA82" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -17898,10 +20378,10 @@
         <v>23.06765840220401</v>
       </c>
       <c r="BK83" t="n">
-        <v>12.3679261862918</v>
+        <v>26.53952879581162</v>
       </c>
       <c r="BL83" t="n">
-        <v>26.53952879581162</v>
+        <v>19.24353623188407</v>
       </c>
       <c r="BM83" t="n">
         <v>3.55</v>
@@ -17917,6 +20397,36 @@
       </c>
       <c r="BQ83" t="n">
         <v>5</v>
+      </c>
+      <c r="BR83" t="n">
+        <v>8.897396021699823</v>
+      </c>
+      <c r="BS83" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BT83" t="n">
+        <v>53.29347197106685</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>450</v>
+      </c>
+      <c r="BV83" t="n">
+        <v>61.3677685950414</v>
+      </c>
+      <c r="BW83" t="n">
+        <v>59.85002617801069</v>
+      </c>
+      <c r="BX83" t="n">
+        <v>63.04457971014497</v>
+      </c>
+      <c r="BY83" t="n">
+        <v>14.17026238050419</v>
+      </c>
+      <c r="BZ83" t="n">
+        <v>8.074296623974554</v>
+      </c>
+      <c r="CA83" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -18107,10 +20617,10 @@
         <v>17.12326086956529</v>
       </c>
       <c r="BK84" t="n">
-        <v>11.20799666110185</v>
+        <v>14.082656641604</v>
       </c>
       <c r="BL84" t="n">
-        <v>14.082656641604</v>
+        <v>20.74952662721895</v>
       </c>
       <c r="BM84" t="n">
         <v>3.8</v>
@@ -18126,6 +20636,36 @@
       </c>
       <c r="BQ84" t="n">
         <v>5.600000000000001</v>
+      </c>
+      <c r="BR84" t="n">
+        <v>16.02784194528884</v>
+      </c>
+      <c r="BS84" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="BT84" t="n">
+        <v>93.64527355623098</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>449</v>
+      </c>
+      <c r="BV84" t="n">
+        <v>46.14232336956537</v>
+      </c>
+      <c r="BW84" t="n">
+        <v>32.43438596491226</v>
+      </c>
+      <c r="BX84" t="n">
+        <v>62.37227810650892</v>
+      </c>
+      <c r="BY84" t="n">
+        <v>1.095418924276444</v>
+      </c>
+      <c r="BZ84" t="n">
+        <v>-47.50295018666561</v>
+      </c>
+      <c r="CA84" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -18316,10 +20856,10 @@
         <v>16.68751651254963</v>
       </c>
       <c r="BK85" t="n">
-        <v>15.81617960426176</v>
+        <v>16.15962593516211</v>
       </c>
       <c r="BL85" t="n">
-        <v>16.15962593516211</v>
+        <v>17.28862745098039</v>
       </c>
       <c r="BM85" t="n">
         <v>0.85</v>
@@ -18335,6 +20875,36 @@
       </c>
       <c r="BQ85" t="n">
         <v>-5.300000000000001</v>
+      </c>
+      <c r="BR85" t="n">
+        <v>15.10945038167943</v>
+      </c>
+      <c r="BS85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT85" t="n">
+        <v>94.39541984732799</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>111</v>
+      </c>
+      <c r="BV85" t="n">
+        <v>85.89811096433311</v>
+      </c>
+      <c r="BW85" t="n">
+        <v>79.2611970074813</v>
+      </c>
+      <c r="BX85" t="n">
+        <v>93.37176470588227</v>
+      </c>
+      <c r="BY85" t="n">
+        <v>1.5780661308702</v>
+      </c>
+      <c r="BZ85" t="n">
+        <v>-8.497308882994872</v>
+      </c>
+      <c r="CA85" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -18525,10 +21095,10 @@
         <v>16.29836970474975</v>
       </c>
       <c r="BK86" t="n">
-        <v>14.70465648854968</v>
+        <v>16.88752969121143</v>
       </c>
       <c r="BL86" t="n">
-        <v>16.88752969121143</v>
+        <v>15.61136490250697</v>
       </c>
       <c r="BM86" t="n">
         <v>0</v>
@@ -18544,6 +21114,36 @@
       </c>
       <c r="BQ86" t="n">
         <v>-7.5</v>
+      </c>
+      <c r="BR86" t="n">
+        <v>14.68940458015272</v>
+      </c>
+      <c r="BS86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT86" t="n">
+        <v>94.25732824427485</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV86" t="n">
+        <v>94.18617458279859</v>
+      </c>
+      <c r="BW86" t="n">
+        <v>93.7738004750594</v>
+      </c>
+      <c r="BX86" t="n">
+        <v>94.67089136490237</v>
+      </c>
+      <c r="BY86" t="n">
+        <v>1.608965124597026</v>
+      </c>
+      <c r="BZ86" t="n">
+        <v>-0.07115366147625934</v>
+      </c>
+      <c r="CA86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -18734,10 +21334,10 @@
         <v>17.86748062015509</v>
       </c>
       <c r="BK87" t="n">
-        <v>14.63334862385323</v>
+        <v>16.99751807228917</v>
       </c>
       <c r="BL87" t="n">
-        <v>16.99751807228917</v>
+        <v>18.87961111111112</v>
       </c>
       <c r="BM87" t="n">
         <v>1.666666666666667</v>
@@ -18753,6 +21353,36 @@
       </c>
       <c r="BQ87" t="n">
         <v>-3.210000000000001</v>
+      </c>
+      <c r="BR87" t="n">
+        <v>14.65550989345513</v>
+      </c>
+      <c r="BS87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT87" t="n">
+        <v>92.41869101978725</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>44</v>
+      </c>
+      <c r="BV87" t="n">
+        <v>74.6148966408268</v>
+      </c>
+      <c r="BW87" t="n">
+        <v>68.87619277108442</v>
+      </c>
+      <c r="BX87" t="n">
+        <v>81.17888888888898</v>
+      </c>
+      <c r="BY87" t="n">
+        <v>3.211970726699958</v>
+      </c>
+      <c r="BZ87" t="n">
+        <v>-17.80379437896045</v>
+      </c>
+      <c r="CA87" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -18943,10 +21573,10 @@
         <v>18.16842105263168</v>
       </c>
       <c r="BK88" t="n">
-        <v>14.73111975116642</v>
+        <v>19.40785714285718</v>
       </c>
       <c r="BL88" t="n">
-        <v>19.40785714285718</v>
+        <v>16.73083333333335</v>
       </c>
       <c r="BM88" t="n">
         <v>2</v>
@@ -18962,6 +21592,36 @@
       </c>
       <c r="BQ88" t="n">
         <v>-3.109999999999999</v>
+      </c>
+      <c r="BR88" t="n">
+        <v>15.0632917316693</v>
+      </c>
+      <c r="BS88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT88" t="n">
+        <v>90.57302652106104</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>116</v>
+      </c>
+      <c r="BV88" t="n">
+        <v>70.45788189987142</v>
+      </c>
+      <c r="BW88" t="n">
+        <v>63.59638095238111</v>
+      </c>
+      <c r="BX88" t="n">
+        <v>78.43502777777788</v>
+      </c>
+      <c r="BY88" t="n">
+        <v>3.105129320962375</v>
+      </c>
+      <c r="BZ88" t="n">
+        <v>-20.11514462118961</v>
+      </c>
+      <c r="CA88" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -19152,10 +21812,10 @@
         <v>19.75615186615196</v>
       </c>
       <c r="BK89" t="n">
-        <v>15.74974085365853</v>
+        <v>19.63854415274468</v>
       </c>
       <c r="BL89" t="n">
-        <v>19.63854415274468</v>
+        <v>19.90523676880224</v>
       </c>
       <c r="BM89" t="n">
         <v>3.983333333333333</v>
@@ -19171,6 +21831,36 @@
       </c>
       <c r="BQ89" t="n">
         <v>-1.800000000000001</v>
+      </c>
+      <c r="BR89" t="n">
+        <v>15.49665653495441</v>
+      </c>
+      <c r="BS89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT89" t="n">
+        <v>93.19156534954411</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>38</v>
+      </c>
+      <c r="BV89" t="n">
+        <v>72.43525096525117</v>
+      </c>
+      <c r="BW89" t="n">
+        <v>68.64988066825782</v>
+      </c>
+      <c r="BX89" t="n">
+        <v>76.81919220055723</v>
+      </c>
+      <c r="BY89" t="n">
+        <v>4.259495331197551</v>
+      </c>
+      <c r="BZ89" t="n">
+        <v>-20.75631438429293</v>
+      </c>
+      <c r="CA89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -19361,10 +22051,10 @@
         <v>22.31813624678678</v>
       </c>
       <c r="BK90" t="n">
-        <v>14.87273141122918</v>
+        <v>23.34957142857149</v>
       </c>
       <c r="BL90" t="n">
-        <v>23.34957142857149</v>
+        <v>21.11721448467969</v>
       </c>
       <c r="BM90" t="n">
         <v>2.433333333333333</v>
@@ -19380,6 +22070,36 @@
       </c>
       <c r="BQ90" t="n">
         <v>0</v>
+      </c>
+      <c r="BR90" t="n">
+        <v>14.75094368340947</v>
+      </c>
+      <c r="BS90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT90" t="n">
+        <v>92.14003044140047</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>52</v>
+      </c>
+      <c r="BV90" t="n">
+        <v>66.37965295629805</v>
+      </c>
+      <c r="BW90" t="n">
+        <v>58.30214285714302</v>
+      </c>
+      <c r="BX90" t="n">
+        <v>75.81022284122578</v>
+      </c>
+      <c r="BY90" t="n">
+        <v>7.567192563377308</v>
+      </c>
+      <c r="BZ90" t="n">
+        <v>-25.76037748510242</v>
+      </c>
+      <c r="CA90" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -19570,10 +22290,10 @@
         <v>23.54160668380472</v>
       </c>
       <c r="BK91" t="n">
-        <v>16.55750380517514</v>
+        <v>24.92190930787598</v>
       </c>
       <c r="BL91" t="n">
-        <v>24.92190930787598</v>
+        <v>21.94913888888888</v>
       </c>
       <c r="BM91" t="n">
         <v>1.7</v>
@@ -19589,6 +22309,36 @@
       </c>
       <c r="BQ91" t="n">
         <v>2.890000000000001</v>
+      </c>
+      <c r="BR91" t="n">
+        <v>17.91022796352591</v>
+      </c>
+      <c r="BS91" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="BT91" t="n">
+        <v>93.54857142857128</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>98</v>
+      </c>
+      <c r="BV91" t="n">
+        <v>64.47065552699222</v>
+      </c>
+      <c r="BW91" t="n">
+        <v>55.10085918854432</v>
+      </c>
+      <c r="BX91" t="n">
+        <v>75.3486111111113</v>
+      </c>
+      <c r="BY91" t="n">
+        <v>5.631378720278807</v>
+      </c>
+      <c r="BZ91" t="n">
+        <v>-29.07791590157906</v>
+      </c>
+      <c r="CA91" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -19779,10 +22529,10 @@
         <v>22.84765083440317</v>
       </c>
       <c r="BK92" t="n">
-        <v>16.1020972644376</v>
+        <v>24.0467933491687</v>
       </c>
       <c r="BL92" t="n">
-        <v>24.0467933491687</v>
+        <v>21.45214484679667</v>
       </c>
       <c r="BM92" t="n">
         <v>2.783333333333333</v>
@@ -19798,6 +22548,36 @@
       </c>
       <c r="BQ92" t="n">
         <v>2.199999999999999</v>
+      </c>
+      <c r="BR92" t="n">
+        <v>14.79261068702291</v>
+      </c>
+      <c r="BS92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT92" t="n">
+        <v>92.16757251908436</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>52</v>
+      </c>
+      <c r="BV92" t="n">
+        <v>62.5774582798457</v>
+      </c>
+      <c r="BW92" t="n">
+        <v>49.48346793349189</v>
+      </c>
+      <c r="BX92" t="n">
+        <v>77.91947075208921</v>
+      </c>
+      <c r="BY92" t="n">
+        <v>8.055040147380261</v>
+      </c>
+      <c r="BZ92" t="n">
+        <v>-29.59011423923866</v>
+      </c>
+      <c r="CA92" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="93">
@@ -19988,10 +22768,10 @@
         <v>22.40970474967916</v>
       </c>
       <c r="BK93" t="n">
-        <v>9.93399686520379</v>
+        <v>23.72504761904771</v>
       </c>
       <c r="BL93" t="n">
-        <v>23.72504761904771</v>
+        <v>20.88452777777778</v>
       </c>
       <c r="BM93" t="n">
         <v>1.55</v>
@@ -20007,6 +22787,36 @@
       </c>
       <c r="BQ93" t="n">
         <v>0.7899999999999991</v>
+      </c>
+      <c r="BR93" t="n">
+        <v>2.381527559055119</v>
+      </c>
+      <c r="BS93" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BT93" t="n">
+        <v>12.84308661417323</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>191</v>
+      </c>
+      <c r="BV93" t="n">
+        <v>60.934544287548</v>
+      </c>
+      <c r="BW93" t="n">
+        <v>48.72488095238119</v>
+      </c>
+      <c r="BX93" t="n">
+        <v>75.15041666666683</v>
+      </c>
+      <c r="BY93" t="n">
+        <v>20.02817719062404</v>
+      </c>
+      <c r="BZ93" t="n">
+        <v>48.09145767337478</v>
+      </c>
+      <c r="CA93" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -20197,10 +23007,10 @@
         <v>17.19754161331637</v>
       </c>
       <c r="BK94" t="n">
-        <v>4.90168503937007</v>
+        <v>19.51078384798102</v>
       </c>
       <c r="BL94" t="n">
-        <v>19.51078384798102</v>
+        <v>14.5059002770083</v>
       </c>
       <c r="BM94" t="n">
         <v>3.266666666666667</v>
@@ -20216,6 +23026,36 @@
       </c>
       <c r="BQ94" t="n">
         <v>-3.609999999999999</v>
+      </c>
+      <c r="BR94" t="n">
+        <v>7.979532710280383</v>
+      </c>
+      <c r="BS94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT94" t="n">
+        <v>48.25034267912766</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>215</v>
+      </c>
+      <c r="BV94" t="n">
+        <v>55.90627400768259</v>
+      </c>
+      <c r="BW94" t="n">
+        <v>56.05793349168661</v>
+      </c>
+      <c r="BX94" t="n">
+        <v>55.73601108033253</v>
+      </c>
+      <c r="BY94" t="n">
+        <v>9.218008903035985</v>
+      </c>
+      <c r="BZ94" t="n">
+        <v>7.655931328554928</v>
+      </c>
+      <c r="CA94" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="95">
@@ -20406,10 +23246,10 @@
         <v>15.94214007782104</v>
       </c>
       <c r="BK95" t="n">
-        <v>4.616443057722309</v>
+        <v>16.55294258373208</v>
       </c>
       <c r="BL95" t="n">
-        <v>16.55294258373208</v>
+        <v>15.2244632768362</v>
       </c>
       <c r="BM95" t="n">
         <v>0</v>
@@ -20425,6 +23265,36 @@
       </c>
       <c r="BQ95" t="n">
         <v>-5</v>
+      </c>
+      <c r="BR95" t="n">
+        <v>0.791528861154446</v>
+      </c>
+      <c r="BS95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT95" t="n">
+        <v>5.022246489859597</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>149</v>
+      </c>
+      <c r="BV95" t="n">
+        <v>93.27548638132313</v>
+      </c>
+      <c r="BW95" t="n">
+        <v>92.49392344497637</v>
+      </c>
+      <c r="BX95" t="n">
+        <v>94.20180790960443</v>
+      </c>
+      <c r="BY95" t="n">
+        <v>15.15061121666659</v>
+      </c>
+      <c r="BZ95" t="n">
+        <v>88.25323989146354</v>
+      </c>
+      <c r="CA95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -20615,10 +23485,10 @@
         <v>18.45794502617809</v>
       </c>
       <c r="BK96" t="n">
-        <v>0.8366513056835638</v>
+        <v>19.68604316546765</v>
       </c>
       <c r="BL96" t="n">
-        <v>19.68604316546765</v>
+        <v>17.00022988505746</v>
       </c>
       <c r="BM96" t="n">
         <v>3.4</v>
@@ -20634,6 +23504,36 @@
       </c>
       <c r="BQ96" t="n">
         <v>-2</v>
+      </c>
+      <c r="BR96" t="n">
+        <v>3.250909090909093</v>
+      </c>
+      <c r="BS96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT96" t="n">
+        <v>20.4063944530046</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>185</v>
+      </c>
+      <c r="BV96" t="n">
+        <v>62.67209424083781</v>
+      </c>
+      <c r="BW96" t="n">
+        <v>62.2867386091128</v>
+      </c>
+      <c r="BX96" t="n">
+        <v>63.1379310344828</v>
+      </c>
+      <c r="BY96" t="n">
+        <v>15.20703593526899</v>
+      </c>
+      <c r="BZ96" t="n">
+        <v>42.26569978783321</v>
+      </c>
+      <c r="CA96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -20824,10 +23724,10 @@
         <v>20.63549333333347</v>
       </c>
       <c r="BK97" t="n">
-        <v>2.382313546423136</v>
+        <v>21.53287500000004</v>
       </c>
       <c r="BL97" t="n">
-        <v>21.53287500000004</v>
+        <v>19.62495726495725</v>
       </c>
       <c r="BM97" t="n">
         <v>2.766666666666667</v>
@@ -20843,6 +23743,36 @@
       </c>
       <c r="BQ97" t="n">
         <v>-0.6099999999999994</v>
+      </c>
+      <c r="BR97" t="n">
+        <v>6.23339837398374</v>
+      </c>
+      <c r="BS97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT97" t="n">
+        <v>39.63221138211389</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>182</v>
+      </c>
+      <c r="BV97" t="n">
+        <v>65.96041333333314</v>
+      </c>
+      <c r="BW97" t="n">
+        <v>53.90085000000023</v>
+      </c>
+      <c r="BX97" t="n">
+        <v>79.70387464387473</v>
+      </c>
+      <c r="BY97" t="n">
+        <v>14.40209495934973</v>
+      </c>
+      <c r="BZ97" t="n">
+        <v>26.32820195121924</v>
+      </c>
+      <c r="CA97" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="98">
@@ -21033,10 +23963,10 @@
         <v>21.88073107049619</v>
       </c>
       <c r="BK98" t="n">
-        <v>13.35163543441232</v>
+        <v>23.5128095238096</v>
       </c>
       <c r="BL98" t="n">
-        <v>23.5128095238096</v>
+        <v>19.91775216138329</v>
       </c>
       <c r="BM98" t="n">
         <v>2.6</v>
@@ -21052,6 +23982,36 @@
       </c>
       <c r="BQ98" t="n">
         <v>1.100000000000001</v>
+      </c>
+      <c r="BR98" t="n">
+        <v>14.74463884430179</v>
+      </c>
+      <c r="BS98" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="BT98" t="n">
+        <v>91.29035313001634</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>233</v>
+      </c>
+      <c r="BV98" t="n">
+        <v>62.48859007832881</v>
+      </c>
+      <c r="BW98" t="n">
+        <v>52.60057142857166</v>
+      </c>
+      <c r="BX98" t="n">
+        <v>74.41504322766573</v>
+      </c>
+      <c r="BY98" t="n">
+        <v>7.136092226194403</v>
+      </c>
+      <c r="BZ98" t="n">
+        <v>-28.80176305168754</v>
+      </c>
+      <c r="CA98" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="99">
@@ -21242,10 +24202,10 @@
         <v>20.19654829545467</v>
       </c>
       <c r="BK99" t="n">
-        <v>14.57318327974281</v>
+        <v>21.6414285714286</v>
       </c>
       <c r="BL99" t="n">
-        <v>21.6414285714286</v>
+        <v>18.5311377245509</v>
       </c>
       <c r="BM99" t="n">
         <v>2.166666666666667</v>
@@ -21261,6 +24221,36 @@
       </c>
       <c r="BQ99" t="n">
         <v>1</v>
+      </c>
+      <c r="BR99" t="n">
+        <v>14.54265600000004</v>
+      </c>
+      <c r="BS99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT99" t="n">
+        <v>90.04233600000023</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>388</v>
+      </c>
+      <c r="BV99" t="n">
+        <v>58.4501278409091</v>
+      </c>
+      <c r="BW99" t="n">
+        <v>47.44320754716992</v>
+      </c>
+      <c r="BX99" t="n">
+        <v>70.5013772455091</v>
+      </c>
+      <c r="BY99" t="n">
+        <v>5.653892295454632</v>
+      </c>
+      <c r="BZ99" t="n">
+        <v>-31.59220815909114</v>
+      </c>
+      <c r="CA99" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="100">
@@ -21451,10 +24441,10 @@
         <v>21.55159701492549</v>
       </c>
       <c r="BK100" t="n">
-        <v>15.10729133858272</v>
+        <v>23.9263456090652</v>
       </c>
       <c r="BL100" t="n">
-        <v>23.9263456090652</v>
+        <v>18.93103773584905</v>
       </c>
       <c r="BM100" t="n">
         <v>1.25</v>
@@ -21470,6 +24460,36 @@
       </c>
       <c r="BQ100" t="n">
         <v>1.699999999999999</v>
+      </c>
+      <c r="BR100" t="n">
+        <v>15.01992175273871</v>
+      </c>
+      <c r="BS100" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BT100" t="n">
+        <v>91.26101721439774</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>483</v>
+      </c>
+      <c r="BV100" t="n">
+        <v>56.02462686567181</v>
+      </c>
+      <c r="BW100" t="n">
+        <v>45.82235127478763</v>
+      </c>
+      <c r="BX100" t="n">
+        <v>67.33176100628944</v>
+      </c>
+      <c r="BY100" t="n">
+        <v>6.531675262186788</v>
+      </c>
+      <c r="BZ100" t="n">
+        <v>-35.23639034872593</v>
+      </c>
+      <c r="CA100" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="101">
@@ -21660,10 +24680,10 @@
         <v>25.63118404118409</v>
       </c>
       <c r="BK101" t="n">
-        <v>15.5821526717558</v>
+        <v>28.58892857142868</v>
       </c>
       <c r="BL101" t="n">
-        <v>28.58892857142868</v>
+        <v>22.17170391061453</v>
       </c>
       <c r="BM101" t="n">
         <v>3.45</v>
@@ -21679,6 +24699,36 @@
       </c>
       <c r="BQ101" t="n">
         <v>5.789999999999999</v>
+      </c>
+      <c r="BR101" t="n">
+        <v>15.99350230414745</v>
+      </c>
+      <c r="BS101" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BT101" t="n">
+        <v>91.89757296466988</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>23</v>
+      </c>
+      <c r="BV101" t="n">
+        <v>64.63655083655061</v>
+      </c>
+      <c r="BW101" t="n">
+        <v>54.37171428571461</v>
+      </c>
+      <c r="BX101" t="n">
+        <v>76.66360335195543</v>
+      </c>
+      <c r="BY101" t="n">
+        <v>9.63768173703664</v>
+      </c>
+      <c r="BZ101" t="n">
+        <v>-27.26102212811927</v>
+      </c>
+      <c r="CA101" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="102">
@@ -21869,10 +24919,10 @@
         <v>25.25811779769536</v>
       </c>
       <c r="BK102" t="n">
-        <v>15.65462249614795</v>
+        <v>27.2535391923992</v>
       </c>
       <c r="BL102" t="n">
-        <v>27.2535391923992</v>
+        <v>22.94637119113576</v>
       </c>
       <c r="BM102" t="n">
         <v>3.616666666666667</v>
@@ -21888,6 +24938,36 @@
       </c>
       <c r="BQ102" t="n">
         <v>5.100000000000001</v>
+      </c>
+      <c r="BR102" t="n">
+        <v>15.52727129337545</v>
+      </c>
+      <c r="BS102" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BT102" t="n">
+        <v>92.90742902208207</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV102" t="n">
+        <v>63.37377720870656</v>
+      </c>
+      <c r="BW102" t="n">
+        <v>51.39985748218547</v>
+      </c>
+      <c r="BX102" t="n">
+        <v>77.30656509695302</v>
+      </c>
+      <c r="BY102" t="n">
+        <v>9.730846504319908</v>
+      </c>
+      <c r="BZ102" t="n">
+        <v>-29.53365181337551</v>
+      </c>
+      <c r="CA102" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="103">
@@ -22078,10 +25158,10 @@
         <v>20.42244125326384</v>
       </c>
       <c r="BK103" t="n">
-        <v>16.82784037558696</v>
+        <v>22.50320388349521</v>
       </c>
       <c r="BL103" t="n">
-        <v>22.50320388349521</v>
+        <v>18.00695774647886</v>
       </c>
       <c r="BM103" t="n">
         <v>5.083333333333333</v>
@@ -22097,6 +25177,36 @@
       </c>
       <c r="BQ103" t="n">
         <v>0.6999999999999993</v>
+      </c>
+      <c r="BR103" t="n">
+        <v>17.25250759878419</v>
+      </c>
+      <c r="BS103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT103" t="n">
+        <v>95.23015197568425</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>129</v>
+      </c>
+      <c r="BV103" t="n">
+        <v>86.22374673629284</v>
+      </c>
+      <c r="BW103" t="n">
+        <v>79.18308252427182</v>
+      </c>
+      <c r="BX103" t="n">
+        <v>94.41309859154934</v>
+      </c>
+      <c r="BY103" t="n">
+        <v>3.169933654479653</v>
+      </c>
+      <c r="BZ103" t="n">
+        <v>-9.006405239391412</v>
+      </c>
+      <c r="CA103" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="104">
@@ -22287,10 +25397,10 @@
         <v>16.71130769230781</v>
       </c>
       <c r="BK104" t="n">
-        <v>15.48233486943162</v>
+        <v>16.85178571428573</v>
       </c>
       <c r="BL104" t="n">
-        <v>16.85178571428573</v>
+        <v>16.55224376731304</v>
       </c>
       <c r="BM104" t="n">
         <v>0</v>
@@ -22306,6 +25416,36 @@
       </c>
       <c r="BQ104" t="n">
         <v>-6.609999999999999</v>
+      </c>
+      <c r="BR104" t="n">
+        <v>14.72544049459039</v>
+      </c>
+      <c r="BS104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT104" t="n">
+        <v>95.92321483771194</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV104" t="n">
+        <v>95.09556410256391</v>
+      </c>
+      <c r="BW104" t="n">
+        <v>94.94238095238074</v>
+      </c>
+      <c r="BX104" t="n">
+        <v>95.27238227146805</v>
+      </c>
+      <c r="BY104" t="n">
+        <v>1.985867197717413</v>
+      </c>
+      <c r="BZ104" t="n">
+        <v>-0.8276507351480262</v>
+      </c>
+      <c r="CA104" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="105">
@@ -22496,10 +25636,10 @@
         <v>19.23144702842386</v>
       </c>
       <c r="BK105" t="n">
-        <v>16.0219113149848</v>
+        <v>20.25783333333337</v>
       </c>
       <c r="BL105" t="n">
-        <v>20.25783333333337</v>
+        <v>18.01845070422535</v>
       </c>
       <c r="BM105" t="n">
         <v>0.06666666666666667</v>
@@ -22515,6 +25655,36 @@
       </c>
       <c r="BQ105" t="n">
         <v>-4.210000000000001</v>
+      </c>
+      <c r="BR105" t="n">
+        <v>16.63948328267475</v>
+      </c>
+      <c r="BS105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT105" t="n">
+        <v>95.25785714285682</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV105" t="n">
+        <v>92.63483204134387</v>
+      </c>
+      <c r="BW105" t="n">
+        <v>91.33864285714301</v>
+      </c>
+      <c r="BX105" t="n">
+        <v>94.1569577464788</v>
+      </c>
+      <c r="BY105" t="n">
+        <v>2.591963745749105</v>
+      </c>
+      <c r="BZ105" t="n">
+        <v>-2.623025101512951</v>
+      </c>
+      <c r="CA105" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="106">
@@ -22705,10 +25875,10 @@
         <v>23.91902470741235</v>
       </c>
       <c r="BK106" t="n">
-        <v>15.48230293663065</v>
+        <v>26.04677261613704</v>
       </c>
       <c r="BL106" t="n">
-        <v>26.04677261613704</v>
+        <v>21.51412742382273</v>
       </c>
       <c r="BM106" t="n">
         <v>2.466666666666667</v>
@@ -22724,6 +25894,36 @@
       </c>
       <c r="BQ106" t="n">
         <v>3.789999999999999</v>
+      </c>
+      <c r="BR106" t="n">
+        <v>13.97694859038147</v>
+      </c>
+      <c r="BS106" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="BT106" t="n">
+        <v>87.10346600331691</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>65</v>
+      </c>
+      <c r="BV106" t="n">
+        <v>62.94154746423906</v>
+      </c>
+      <c r="BW106" t="n">
+        <v>51.73948655256751</v>
+      </c>
+      <c r="BX106" t="n">
+        <v>75.5988642659281</v>
+      </c>
+      <c r="BY106" t="n">
+        <v>9.942076117030883</v>
+      </c>
+      <c r="BZ106" t="n">
+        <v>-24.16191853907785</v>
+      </c>
+      <c r="CA106" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="107">
@@ -22914,10 +26114,10 @@
         <v>22.83327676240219</v>
       </c>
       <c r="BK107" t="n">
-        <v>13.02033216783219</v>
+        <v>25.30721153846163</v>
       </c>
       <c r="BL107" t="n">
-        <v>25.30721153846163</v>
+        <v>19.91105413105412</v>
       </c>
       <c r="BM107" t="n">
         <v>3.366666666666667</v>
@@ -22933,6 +26133,36 @@
       </c>
       <c r="BQ107" t="n">
         <v>2.390000000000001</v>
+      </c>
+      <c r="BR107" t="n">
+        <v>10.83908765652956</v>
+      </c>
+      <c r="BS107" t="n">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="BT107" t="n">
+        <v>66.63041144901621</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>374</v>
+      </c>
+      <c r="BV107" t="n">
+        <v>63.53540469973867</v>
+      </c>
+      <c r="BW107" t="n">
+        <v>56.92305288461566</v>
+      </c>
+      <c r="BX107" t="n">
+        <v>71.3624501424501</v>
+      </c>
+      <c r="BY107" t="n">
+        <v>11.99418910587263</v>
+      </c>
+      <c r="BZ107" t="n">
+        <v>-3.095006749277537</v>
+      </c>
+      <c r="CA107" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="108">
@@ -23123,10 +26353,10 @@
         <v>22.27736434108539</v>
       </c>
       <c r="BK108" t="n">
-        <v>6.220719178082179</v>
+        <v>25.33236842105271</v>
       </c>
       <c r="BL108" t="n">
-        <v>25.33236842105271</v>
+        <v>18.70966386554623</v>
       </c>
       <c r="BM108" t="n">
         <v>6.25</v>
@@ -23142,6 +26372,36 @@
       </c>
       <c r="BQ108" t="n">
         <v>2.199999999999999</v>
+      </c>
+      <c r="BR108" t="n">
+        <v>4.654369538077396</v>
+      </c>
+      <c r="BS108" t="n">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="BT108" t="n">
+        <v>23.54779026217226</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>501</v>
+      </c>
+      <c r="BV108" t="n">
+        <v>67.6034625322997</v>
+      </c>
+      <c r="BW108" t="n">
+        <v>65.3263157894738</v>
+      </c>
+      <c r="BX108" t="n">
+        <v>70.26574229691879</v>
+      </c>
+      <c r="BY108" t="n">
+        <v>17.622994803008</v>
+      </c>
+      <c r="BZ108" t="n">
+        <v>44.05567227012745</v>
+      </c>
+      <c r="CA108" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="109">
@@ -23332,10 +26592,10 @@
         <v>20.47604963112002</v>
       </c>
       <c r="BK109" t="n">
-        <v>11.06598305084749</v>
+        <v>24.81083979328179</v>
       </c>
       <c r="BL109" t="n">
-        <v>24.81083979328179</v>
+        <v>15.82670375521566</v>
       </c>
       <c r="BM109" t="n">
         <v>10.9</v>
@@ -23351,6 +26611,36 @@
       </c>
       <c r="BQ109" t="n">
         <v>2.199999999999999</v>
+      </c>
+      <c r="BR109" t="n">
+        <v>15.01069607843139</v>
+      </c>
+      <c r="BS109" t="n">
+        <v>5.733333333333333</v>
+      </c>
+      <c r="BT109" t="n">
+        <v>82.46373529411755</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>377</v>
+      </c>
+      <c r="BV109" t="n">
+        <v>54.09285043594831</v>
+      </c>
+      <c r="BW109" t="n">
+        <v>45.93543927648603</v>
+      </c>
+      <c r="BX109" t="n">
+        <v>62.8901390820584</v>
+      </c>
+      <c r="BY109" t="n">
+        <v>5.465353552688633</v>
+      </c>
+      <c r="BZ109" t="n">
+        <v>-28.37088485816925</v>
+      </c>
+      <c r="CA109" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="110">
@@ -23541,10 +26831,10 @@
         <v>24.24869960988304</v>
       </c>
       <c r="BK110" t="n">
-        <v>14.58365296803655</v>
+        <v>26.50768674698805</v>
       </c>
       <c r="BL110" t="n">
-        <v>26.50768674698805</v>
+        <v>21.61957746478875</v>
       </c>
       <c r="BM110" t="n">
         <v>3.083333333333333</v>
@@ -23560,6 +26850,36 @@
       </c>
       <c r="BQ110" t="n">
         <v>3.699999999999999</v>
+      </c>
+      <c r="BR110" t="n">
+        <v>15.24408814589671</v>
+      </c>
+      <c r="BS110" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BT110" t="n">
+        <v>94.62715805471171</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>32</v>
+      </c>
+      <c r="BV110" t="n">
+        <v>64.93085825747696</v>
+      </c>
+      <c r="BW110" t="n">
+        <v>52.47771084337373</v>
+      </c>
+      <c r="BX110" t="n">
+        <v>79.48191549295781</v>
+      </c>
+      <c r="BY110" t="n">
+        <v>9.004611463986331</v>
+      </c>
+      <c r="BZ110" t="n">
+        <v>-29.69629979723476</v>
+      </c>
+      <c r="CA110" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="111">
@@ -23750,10 +27070,10 @@
         <v>26.05343589743598</v>
       </c>
       <c r="BK111" t="n">
-        <v>17.31863429438553</v>
+        <v>28.34603325415688</v>
       </c>
       <c r="BL111" t="n">
-        <v>28.34603325415688</v>
+        <v>23.38500000000003</v>
       </c>
       <c r="BM111" t="n">
         <v>9.516666666666667</v>
@@ -23769,6 +27089,36 @@
       </c>
       <c r="BQ111" t="n">
         <v>5.100000000000001</v>
+      </c>
+      <c r="BR111" t="n">
+        <v>18.58722306525047</v>
+      </c>
+      <c r="BS111" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BT111" t="n">
+        <v>95.42024279210965</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV111" t="n">
+        <v>81.56641025641053</v>
+      </c>
+      <c r="BW111" t="n">
+        <v>77.09529691211385</v>
+      </c>
+      <c r="BX111" t="n">
+        <v>86.75577777777765</v>
+      </c>
+      <c r="BY111" t="n">
+        <v>7.466212832185512</v>
+      </c>
+      <c r="BZ111" t="n">
+        <v>-13.85383253569911</v>
+      </c>
+      <c r="CA111" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="112">
@@ -23959,10 +27309,10 @@
         <v>25.51881818181825</v>
       </c>
       <c r="BK112" t="n">
-        <v>19.08189681335366</v>
+        <v>27.18179856115118</v>
       </c>
       <c r="BL112" t="n">
-        <v>27.18179856115118</v>
+        <v>23.56771186440681</v>
       </c>
       <c r="BM112" t="n">
         <v>5.466666666666667</v>
@@ -23978,6 +27328,36 @@
       </c>
       <c r="BQ112" t="n">
         <v>4.5</v>
+      </c>
+      <c r="BR112" t="n">
+        <v>20.07905918057673</v>
+      </c>
+      <c r="BS112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT112" t="n">
+        <v>97.07657056145713</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>49</v>
+      </c>
+      <c r="BV112" t="n">
+        <v>87.23642857142885</v>
+      </c>
+      <c r="BW112" t="n">
+        <v>82.95155875299756</v>
+      </c>
+      <c r="BX112" t="n">
+        <v>92.27443502824849</v>
+      </c>
+      <c r="BY112" t="n">
+        <v>5.439759001241516</v>
+      </c>
+      <c r="BZ112" t="n">
+        <v>-9.840141990028286</v>
+      </c>
+      <c r="CA112" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="113">
@@ -24168,10 +27548,10 @@
         <v>22.8748908857511</v>
       </c>
       <c r="BK113" t="n">
-        <v>18.03881638846744</v>
+        <v>22.30378571428576</v>
       </c>
       <c r="BL113" t="n">
-        <v>22.30378571428576</v>
+        <v>23.55708333333336</v>
       </c>
       <c r="BM113" t="n">
         <v>2.583333333333333</v>
@@ -24187,6 +27567,36 @@
       </c>
       <c r="BQ113" t="n">
         <v>4.390000000000001</v>
+      </c>
+      <c r="BR113" t="n">
+        <v>14.83969558599695</v>
+      </c>
+      <c r="BS113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT113" t="n">
+        <v>97.89106544901081</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>49</v>
+      </c>
+      <c r="BV113" t="n">
+        <v>91.04569961489108</v>
+      </c>
+      <c r="BW113" t="n">
+        <v>88.24369047619047</v>
+      </c>
+      <c r="BX113" t="n">
+        <v>94.28594444444443</v>
+      </c>
+      <c r="BY113" t="n">
+        <v>8.035195299754148</v>
+      </c>
+      <c r="BZ113" t="n">
+        <v>-6.845365834119733</v>
+      </c>
+      <c r="CA113" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="114">
@@ -24377,10 +27787,10 @@
         <v>20.38320051413892</v>
       </c>
       <c r="BK114" t="n">
-        <v>13.61758778625961</v>
+        <v>21.32147971360384</v>
       </c>
       <c r="BL114" t="n">
-        <v>21.32147971360384</v>
+        <v>19.28869444444444</v>
       </c>
       <c r="BM114" t="n">
         <v>5.416666666666667</v>
@@ -24396,6 +27806,36 @@
       </c>
       <c r="BQ114" t="n">
         <v>-1</v>
+      </c>
+      <c r="BR114" t="n">
+        <v>12.53423547400621</v>
+      </c>
+      <c r="BS114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT114" t="n">
+        <v>97.2668042813455</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>24</v>
+      </c>
+      <c r="BV114" t="n">
+        <v>72.79208226221084</v>
+      </c>
+      <c r="BW114" t="n">
+        <v>67.47933174224359</v>
+      </c>
+      <c r="BX114" t="n">
+        <v>78.96083333333347</v>
+      </c>
+      <c r="BY114" t="n">
+        <v>7.848965040132713</v>
+      </c>
+      <c r="BZ114" t="n">
+        <v>-24.47472201913466</v>
+      </c>
+      <c r="CA114" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="115">
@@ -24586,10 +28026,10 @@
         <v>22.3911855670104</v>
       </c>
       <c r="BK115" t="n">
-        <v>12.76099085365856</v>
+        <v>24.10535885167472</v>
       </c>
       <c r="BL115" t="n">
-        <v>24.10535885167472</v>
+        <v>20.40476323119779</v>
       </c>
       <c r="BM115" t="n">
         <v>1.066666666666667</v>
@@ -24605,6 +28045,36 @@
       </c>
       <c r="BQ115" t="n">
         <v>1.199999999999999</v>
+      </c>
+      <c r="BR115" t="n">
+        <v>12.46992412746591</v>
+      </c>
+      <c r="BS115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT115" t="n">
+        <v>96.56423368740549</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>60</v>
+      </c>
+      <c r="BV115" t="n">
+        <v>62.55729381443287</v>
+      </c>
+      <c r="BW115" t="n">
+        <v>53.08473684210546</v>
+      </c>
+      <c r="BX115" t="n">
+        <v>73.54440111420644</v>
+      </c>
+      <c r="BY115" t="n">
+        <v>9.921261439544486</v>
+      </c>
+      <c r="BZ115" t="n">
+        <v>-34.00693987297262</v>
+      </c>
+      <c r="CA115" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="116">
@@ -24795,10 +28265,10 @@
         <v>23.94432855280323</v>
       </c>
       <c r="BK116" t="n">
-        <v>14.45252321981434</v>
+        <v>25.89549878345509</v>
       </c>
       <c r="BL116" t="n">
-        <v>25.89549878345509</v>
+        <v>21.71078431372549</v>
       </c>
       <c r="BM116" t="n">
         <v>5.716666666666667</v>
@@ -24814,6 +28284,36 @@
       </c>
       <c r="BQ116" t="n">
         <v>3.390000000000001</v>
+      </c>
+      <c r="BR116" t="n">
+        <v>18.03187596899236</v>
+      </c>
+      <c r="BS116" t="n">
+        <v>1.033333333333333</v>
+      </c>
+      <c r="BT116" t="n">
+        <v>95.47077519379887</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>60</v>
+      </c>
+      <c r="BV116" t="n">
+        <v>70.69559322033876</v>
+      </c>
+      <c r="BW116" t="n">
+        <v>59.94815085158173</v>
+      </c>
+      <c r="BX116" t="n">
+        <v>83.06700280112035</v>
+      </c>
+      <c r="BY116" t="n">
+        <v>5.912452583810872</v>
+      </c>
+      <c r="BZ116" t="n">
+        <v>-24.77518197346011</v>
+      </c>
+      <c r="CA116" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="117">
@@ -25004,10 +28504,10 @@
         <v>18.99517994858626</v>
       </c>
       <c r="BK117" t="n">
-        <v>17.44709726443768</v>
+        <v>19.78183770883058</v>
       </c>
       <c r="BL117" t="n">
-        <v>19.78183770883058</v>
+        <v>18.08238888888888</v>
       </c>
       <c r="BM117" t="n">
         <v>0</v>
@@ -25023,6 +28523,36 @@
       </c>
       <c r="BQ117" t="n">
         <v>-5.210000000000001</v>
+      </c>
+      <c r="BR117" t="n">
+        <v>17.43822458270122</v>
+      </c>
+      <c r="BS117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT117" t="n">
+        <v>99.72332321699642</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV117" t="n">
+        <v>98.39244215938315</v>
+      </c>
+      <c r="BW117" t="n">
+        <v>97.78928400954686</v>
+      </c>
+      <c r="BX117" t="n">
+        <v>99.09419444444435</v>
+      </c>
+      <c r="BY117" t="n">
+        <v>1.556955365885038</v>
+      </c>
+      <c r="BZ117" t="n">
+        <v>-1.330881057613269</v>
+      </c>
+      <c r="CA117" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="118">
@@ -25213,10 +28743,10 @@
         <v>21.36745501285358</v>
       </c>
       <c r="BK118" t="n">
-        <v>16.91281155015199</v>
+        <v>23.85954545454554</v>
       </c>
       <c r="BL118" t="n">
-        <v>23.85954545454554</v>
+        <v>18.48304709141276</v>
       </c>
       <c r="BM118" t="n">
         <v>0.5333333333333333</v>
@@ -25232,6 +28762,36 @@
       </c>
       <c r="BQ118" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="BR118" t="n">
+        <v>15.31123100303955</v>
+      </c>
+      <c r="BS118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT118" t="n">
+        <v>98.46691489361751</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV118" t="n">
+        <v>94.46807197943465</v>
+      </c>
+      <c r="BW118" t="n">
+        <v>90.45942583732061</v>
+      </c>
+      <c r="BX118" t="n">
+        <v>99.10919667590031</v>
+      </c>
+      <c r="BY118" t="n">
+        <v>6.056224009814034</v>
+      </c>
+      <c r="BZ118" t="n">
+        <v>-3.998842914182859</v>
+      </c>
+      <c r="CA118" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="119">
@@ -25422,10 +28982,10 @@
         <v>22.71413101604289</v>
       </c>
       <c r="BK119" t="n">
-        <v>15.33516717325229</v>
+        <v>25.32926582278488</v>
       </c>
       <c r="BL119" t="n">
-        <v>25.32926582278488</v>
+        <v>19.79748587570622</v>
       </c>
       <c r="BM119" t="n">
         <v>8.6</v>
@@ -25441,6 +29001,36 @@
       </c>
       <c r="BQ119" t="n">
         <v>3</v>
+      </c>
+      <c r="BR119" t="n">
+        <v>14.29365296803657</v>
+      </c>
+      <c r="BS119" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BT119" t="n">
+        <v>95.67572298325786</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>61</v>
+      </c>
+      <c r="BV119" t="n">
+        <v>79.03669786096282</v>
+      </c>
+      <c r="BW119" t="n">
+        <v>69.80101265822782</v>
+      </c>
+      <c r="BX119" t="n">
+        <v>89.35014124293777</v>
+      </c>
+      <c r="BY119" t="n">
+        <v>8.420478048006325</v>
+      </c>
+      <c r="BZ119" t="n">
+        <v>-16.63902512229504</v>
+      </c>
+      <c r="CA119" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="120">
@@ -25631,10 +29221,10 @@
         <v>23.69984931506861</v>
       </c>
       <c r="BK120" t="n">
-        <v>13.82630769230774</v>
+        <v>26.53458536585376</v>
       </c>
       <c r="BL120" t="n">
-        <v>26.53458536585376</v>
+        <v>20.09065420560748</v>
       </c>
       <c r="BM120" t="n">
         <v>9.233333333333333</v>
@@ -25650,6 +29240,36 @@
       </c>
       <c r="BQ120" t="n">
         <v>4.199999999999999</v>
+      </c>
+      <c r="BR120" t="n">
+        <v>13.57371340523886</v>
+      </c>
+      <c r="BS120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BT120" t="n">
+        <v>95.18508474576285</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>102</v>
+      </c>
+      <c r="BV120" t="n">
+        <v>75.23089041095899</v>
+      </c>
+      <c r="BW120" t="n">
+        <v>68.25890243902434</v>
+      </c>
+      <c r="BX120" t="n">
+        <v>84.11990654205597</v>
+      </c>
+      <c r="BY120" t="n">
+        <v>10.12613590982975</v>
+      </c>
+      <c r="BZ120" t="n">
+        <v>-19.95419433480386</v>
+      </c>
+      <c r="CA120" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="121">
@@ -25840,10 +29460,10 @@
         <v>22.43688715953319</v>
       </c>
       <c r="BK121" t="n">
-        <v>13.22466463414638</v>
+        <v>25.30711217183781</v>
       </c>
       <c r="BL121" t="n">
-        <v>25.30711217183781</v>
+        <v>19.04235127478753</v>
       </c>
       <c r="BM121" t="n">
         <v>7.966666666666667</v>
@@ -25859,6 +29479,36 @@
       </c>
       <c r="BQ121" t="n">
         <v>1.390000000000001</v>
+      </c>
+      <c r="BR121" t="n">
+        <v>14.52522796352586</v>
+      </c>
+      <c r="BS121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT121" t="n">
+        <v>97.05013677811603</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV121" t="n">
+        <v>80.60297016861242</v>
+      </c>
+      <c r="BW121" t="n">
+        <v>71.79615751789977</v>
+      </c>
+      <c r="BX121" t="n">
+        <v>91.03963172804514</v>
+      </c>
+      <c r="BY121" t="n">
+        <v>7.911659196007328</v>
+      </c>
+      <c r="BZ121" t="n">
+        <v>-16.44716660950361</v>
+      </c>
+      <c r="CA121" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="122">
@@ -26049,10 +29699,10 @@
         <v>21.3645285714287</v>
       </c>
       <c r="BK122" t="n">
-        <v>15.5306595092025</v>
+        <v>22.54421348314609</v>
       </c>
       <c r="BL122" t="n">
-        <v>22.54421348314609</v>
+        <v>20.16124637681159</v>
       </c>
       <c r="BM122" t="n">
         <v>2.3</v>
@@ -26068,6 +29718,36 @@
       </c>
       <c r="BQ122" t="n">
         <v>1.390000000000001</v>
+      </c>
+      <c r="BR122" t="n">
+        <v>16.36433846153851</v>
+      </c>
+      <c r="BS122" t="n">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="BT122" t="n">
+        <v>97.85167692307752</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>168</v>
+      </c>
+      <c r="BV122" t="n">
+        <v>69.96564285714268</v>
+      </c>
+      <c r="BW122" t="n">
+        <v>49.9589044943822</v>
+      </c>
+      <c r="BX122" t="n">
+        <v>90.62542028985501</v>
+      </c>
+      <c r="BY122" t="n">
+        <v>5.000190109890195</v>
+      </c>
+      <c r="BZ122" t="n">
+        <v>-27.88603406593484</v>
+      </c>
+      <c r="CA122" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="123">
@@ -26258,10 +29938,10 @@
         <v>18.44458172458184</v>
       </c>
       <c r="BK123" t="n">
-        <v>16.63703196347033</v>
+        <v>19.65590909090914</v>
       </c>
       <c r="BL123" t="n">
-        <v>19.65590909090914</v>
+        <v>17.04183333333336</v>
       </c>
       <c r="BM123" t="n">
         <v>0</v>
@@ -26277,6 +29957,36 @@
       </c>
       <c r="BQ123" t="n">
         <v>-1.800000000000001</v>
+      </c>
+      <c r="BR123" t="n">
+        <v>16.89820940819427</v>
+      </c>
+      <c r="BS123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT123" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV123" t="n">
+        <v>99.48557271557263</v>
+      </c>
+      <c r="BW123" t="n">
+        <v>99.15583732057446</v>
+      </c>
+      <c r="BX123" t="n">
+        <v>99.86958333333395</v>
+      </c>
+      <c r="BY123" t="n">
+        <v>1.546372316387572</v>
+      </c>
+      <c r="BZ123" t="n">
+        <v>-0.4144272844283705</v>
+      </c>
+      <c r="CA123" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="124">
@@ -26467,10 +30177,10 @@
         <v>15.38082658022693</v>
       </c>
       <c r="BK124" t="n">
-        <v>15.36621666666668</v>
+        <v>13.4661639344262</v>
       </c>
       <c r="BL124" t="n">
-        <v>13.4661639344262</v>
+        <v>17.19741214057506</v>
       </c>
       <c r="BM124" t="n">
         <v>1.383333333333333</v>
@@ -26486,6 +30196,36 @@
       </c>
       <c r="BQ124" t="n">
         <v>1.789999999999999</v>
+      </c>
+      <c r="BR124" t="n">
+        <v>14.65385642737896</v>
+      </c>
+      <c r="BS124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT124" t="n">
+        <v>95.54290484140328</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>554</v>
+      </c>
+      <c r="BV124" t="n">
+        <v>66.73972447325764</v>
+      </c>
+      <c r="BW124" t="n">
+        <v>44.85577049180329</v>
+      </c>
+      <c r="BX124" t="n">
+        <v>87.85111821086245</v>
+      </c>
+      <c r="BY124" t="n">
+        <v>0.7269701528479686</v>
+      </c>
+      <c r="BZ124" t="n">
+        <v>-28.80318036814565</v>
+      </c>
+      <c r="CA124" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="125">
@@ -26676,10 +30416,10 @@
         <v>20.54096330275236</v>
       </c>
       <c r="BK125" t="n">
-        <v>11.38313935681476</v>
+        <v>21.10969230769233</v>
       </c>
       <c r="BL125" t="n">
-        <v>21.10969230769233</v>
+        <v>20.00193939393938</v>
       </c>
       <c r="BM125" t="n">
         <v>3.2</v>
@@ -26695,6 +30435,36 @@
       </c>
       <c r="BQ125" t="n">
         <v>3.5</v>
+      </c>
+      <c r="BR125" t="n">
+        <v>11.34394080996887</v>
+      </c>
+      <c r="BS125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT125" t="n">
+        <v>72.01716510903486</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>396</v>
+      </c>
+      <c r="BV125" t="n">
+        <v>79.2838532110093</v>
+      </c>
+      <c r="BW125" t="n">
+        <v>62.65289230769227</v>
+      </c>
+      <c r="BX125" t="n">
+        <v>95.68772727272713</v>
+      </c>
+      <c r="BY125" t="n">
+        <v>9.197022492783496</v>
+      </c>
+      <c r="BZ125" t="n">
+        <v>7.266688101974438</v>
+      </c>
+      <c r="CA125" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="126">
@@ -26885,10 +30655,10 @@
         <v>3.753608391608388</v>
       </c>
       <c r="BK126" t="n">
-        <v>8.998106416275464</v>
+        <v>0.2469544364508393</v>
       </c>
       <c r="BL126" t="n">
-        <v>0.2469544364508393</v>
+        <v>8.631605351170561</v>
       </c>
       <c r="BM126" t="n">
         <v>0.08333333333333333</v>
@@ -26904,6 +30674,36 @@
       </c>
       <c r="BQ126" t="n">
         <v>5</v>
+      </c>
+      <c r="BR126" t="n">
+        <v>2.191062499999998</v>
+      </c>
+      <c r="BS126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT126" t="n">
+        <v>9.677812499999991</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>441</v>
+      </c>
+      <c r="BV126" t="n">
+        <v>18.36911888111887</v>
+      </c>
+      <c r="BW126" t="n">
+        <v>0.9045083932853716</v>
+      </c>
+      <c r="BX126" t="n">
+        <v>42.66468227424746</v>
+      </c>
+      <c r="BY126" t="n">
+        <v>1.56254589160839</v>
+      </c>
+      <c r="BZ126" t="n">
+        <v>8.691306381118878</v>
+      </c>
+      <c r="CA126" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="127">
@@ -27094,10 +30894,10 @@
         <v>22.89909217877113</v>
       </c>
       <c r="BK127" t="n">
-        <v>12.68802469135804</v>
+        <v>26.12674757281569</v>
       </c>
       <c r="BL127" t="n">
-        <v>26.12674757281569</v>
+        <v>18.55583606557377</v>
       </c>
       <c r="BM127" t="n">
         <v>0</v>
@@ -27113,6 +30913,36 @@
       </c>
       <c r="BQ127" t="n">
         <v>2.100000000000001</v>
+      </c>
+      <c r="BR127" t="n">
+        <v>23.94048558421877</v>
+      </c>
+      <c r="BS127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT127" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>247</v>
+      </c>
+      <c r="BV127" t="n">
+        <v>87.00617318435785</v>
+      </c>
+      <c r="BW127" t="n">
+        <v>98.77628640776723</v>
+      </c>
+      <c r="BX127" t="n">
+        <v>71.13829508196704</v>
+      </c>
+      <c r="BY127" t="n">
+        <v>-1.041393405447639</v>
+      </c>
+      <c r="BZ127" t="n">
+        <v>-12.89382681564315</v>
+      </c>
+      <c r="CA127" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="128">
@@ -27303,10 +31133,10 @@
         <v>26.84334620334637</v>
       </c>
       <c r="BK128" t="n">
-        <v>23.7626858877088</v>
+        <v>27.40328571428587</v>
       </c>
       <c r="BL128" t="n">
-        <v>27.40328571428587</v>
+        <v>26.19832402234644</v>
       </c>
       <c r="BM128" t="n">
         <v>0</v>
@@ -27322,6 +31152,36 @@
       </c>
       <c r="BQ128" t="n">
         <v>5.890000000000001</v>
+      </c>
+      <c r="BR128" t="n">
+        <v>22.45294832826758</v>
+      </c>
+      <c r="BS128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT128" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV128" t="n">
+        <v>99.17625482625456</v>
+      </c>
+      <c r="BW128" t="n">
+        <v>98.65130952381007</v>
+      </c>
+      <c r="BX128" t="n">
+        <v>99.79075418994471</v>
+      </c>
+      <c r="BY128" t="n">
+        <v>4.390397875078786</v>
+      </c>
+      <c r="BZ128" t="n">
+        <v>-0.7237451737464511</v>
+      </c>
+      <c r="CA128" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="129">
@@ -27512,10 +31372,10 @@
         <v>21.78287001287017</v>
       </c>
       <c r="BK129" t="n">
-        <v>19.95337386018261</v>
+        <v>22.101028708134</v>
       </c>
       <c r="BL129" t="n">
-        <v>22.101028708134</v>
+        <v>21.41738888888891</v>
       </c>
       <c r="BM129" t="n">
         <v>0</v>
@@ -27531,6 +31391,36 @@
       </c>
       <c r="BQ129" t="n">
         <v>-1.399999999999999</v>
+      </c>
+      <c r="BR129" t="n">
+        <v>17.17452887537995</v>
+      </c>
+      <c r="BS129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT129" t="n">
+        <v>99.8653799392107</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV129" t="n">
+        <v>99.74911196911231</v>
+      </c>
+      <c r="BW129" t="n">
+        <v>99.63303827751233</v>
+      </c>
+      <c r="BX129" t="n">
+        <v>99.88430555555618</v>
+      </c>
+      <c r="BY129" t="n">
+        <v>4.608341137490218</v>
+      </c>
+      <c r="BZ129" t="n">
+        <v>-0.1162679700983915</v>
+      </c>
+      <c r="CA129" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="130">
@@ -27721,10 +31611,10 @@
         <v>22.38368491321777</v>
       </c>
       <c r="BK130" t="n">
-        <v>16.1840215716487</v>
+        <v>25.64727047146411</v>
       </c>
       <c r="BL130" t="n">
-        <v>25.64727047146411</v>
+        <v>18.60178674351586</v>
       </c>
       <c r="BM130" t="n">
         <v>5.95</v>
@@ -27740,6 +31630,36 @@
       </c>
       <c r="BQ130" t="n">
         <v>2.100000000000001</v>
+      </c>
+      <c r="BR130" t="n">
+        <v>14.02896890343702</v>
+      </c>
+      <c r="BS130" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="BT130" t="n">
+        <v>89.24520458265148</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>68</v>
+      </c>
+      <c r="BV130" t="n">
+        <v>83.14022696929268</v>
+      </c>
+      <c r="BW130" t="n">
+        <v>71.72297766749377</v>
+      </c>
+      <c r="BX130" t="n">
+        <v>96.4183573487031</v>
+      </c>
+      <c r="BY130" t="n">
+        <v>8.35471600978075</v>
+      </c>
+      <c r="BZ130" t="n">
+        <v>-6.104977613358798</v>
+      </c>
+      <c r="CA130" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="131">
@@ -27930,10 +31850,10 @@
         <v>22.47804000000016</v>
       </c>
       <c r="BK131" t="n">
-        <v>13.81460000000005</v>
+        <v>23.16539408867</v>
       </c>
       <c r="BL131" t="n">
-        <v>23.16539408867</v>
+        <v>21.68718840579712</v>
       </c>
       <c r="BM131" t="n">
         <v>5.9</v>
@@ -27949,6 +31869,36 @@
       </c>
       <c r="BQ131" t="n">
         <v>3</v>
+      </c>
+      <c r="BR131" t="n">
+        <v>13.76216088328084</v>
+      </c>
+      <c r="BS131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BT131" t="n">
+        <v>87.96135646687719</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>112</v>
+      </c>
+      <c r="BV131" t="n">
+        <v>61.66085333333359</v>
+      </c>
+      <c r="BW131" t="n">
+        <v>60.02581280788183</v>
+      </c>
+      <c r="BX131" t="n">
+        <v>63.54249275362344</v>
+      </c>
+      <c r="BY131" t="n">
+        <v>8.715879116719323</v>
+      </c>
+      <c r="BZ131" t="n">
+        <v>-26.3005031335436</v>
+      </c>
+      <c r="CA131" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="132">
@@ -28139,10 +32089,10 @@
         <v>24.93520261437922</v>
       </c>
       <c r="BK132" t="n">
-        <v>14.77584876543213</v>
+        <v>27.36198090692137</v>
       </c>
       <c r="BL132" t="n">
-        <v>27.36198090692137</v>
+        <v>22.0162824207493</v>
       </c>
       <c r="BM132" t="n">
         <v>9.199999999999999</v>
@@ -28158,6 +32108,36 @@
       </c>
       <c r="BQ132" t="n">
         <v>4.5</v>
+      </c>
+      <c r="BR132" t="n">
+        <v>16.09761102603373</v>
+      </c>
+      <c r="BS132" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BT132" t="n">
+        <v>98.06094946401322</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>9</v>
+      </c>
+      <c r="BV132" t="n">
+        <v>75.86028758169958</v>
+      </c>
+      <c r="BW132" t="n">
+        <v>70.86715990453457</v>
+      </c>
+      <c r="BX132" t="n">
+        <v>81.87455331412097</v>
+      </c>
+      <c r="BY132" t="n">
+        <v>8.837591588345493</v>
+      </c>
+      <c r="BZ132" t="n">
+        <v>-22.20066188231364</v>
+      </c>
+      <c r="CA132" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="133">
@@ -28348,10 +32328,10 @@
         <v>23.28789904502054</v>
       </c>
       <c r="BK133" t="n">
-        <v>16.48758358662626</v>
+        <v>23.78987684729073</v>
       </c>
       <c r="BL133" t="n">
-        <v>23.78987684729073</v>
+        <v>22.67664634146343</v>
       </c>
       <c r="BM133" t="n">
         <v>3.2</v>
@@ -28367,6 +32347,36 @@
       </c>
       <c r="BQ133" t="n">
         <v>3.890000000000001</v>
+      </c>
+      <c r="BR133" t="n">
+        <v>18.41471124620072</v>
+      </c>
+      <c r="BS133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT133" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>129</v>
+      </c>
+      <c r="BV133" t="n">
+        <v>89.49298772169196</v>
+      </c>
+      <c r="BW133" t="n">
+        <v>88.35509852216749</v>
+      </c>
+      <c r="BX133" t="n">
+        <v>90.87006097560966</v>
+      </c>
+      <c r="BY133" t="n">
+        <v>4.873187798819821</v>
+      </c>
+      <c r="BZ133" t="n">
+        <v>-10.40701227830905</v>
+      </c>
+      <c r="CA133" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="134">
@@ -28557,10 +32567,10 @@
         <v>26.29946052631586</v>
       </c>
       <c r="BK134" t="n">
-        <v>16.72840182648397</v>
+        <v>27.86983333333343</v>
       </c>
       <c r="BL134" t="n">
-        <v>27.86983333333343</v>
+        <v>24.37727272727274</v>
       </c>
       <c r="BM134" t="n">
         <v>4.633333333333334</v>
@@ -28576,6 +32586,36 @@
       </c>
       <c r="BQ134" t="n">
         <v>4.5</v>
+      </c>
+      <c r="BR134" t="n">
+        <v>13.18964992389651</v>
+      </c>
+      <c r="BS134" t="n">
+        <v>1.016666666666667</v>
+      </c>
+      <c r="BT134" t="n">
+        <v>96.48624048706327</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>12</v>
+      </c>
+      <c r="BV134" t="n">
+        <v>71.63621052631558</v>
+      </c>
+      <c r="BW134" t="n">
+        <v>59.37500000000011</v>
+      </c>
+      <c r="BX134" t="n">
+        <v>86.71384164222869</v>
+      </c>
+      <c r="BY134" t="n">
+        <v>13.10981060241935</v>
+      </c>
+      <c r="BZ134" t="n">
+        <v>-24.85002996074769</v>
+      </c>
+      <c r="CA134" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="135">
@@ -28766,10 +32806,10 @@
         <v>24.5594935064936</v>
       </c>
       <c r="BK135" t="n">
-        <v>13.4166666666667</v>
+        <v>27.31248780487817</v>
       </c>
       <c r="BL135" t="n">
-        <v>27.31248780487817</v>
+        <v>21.44512465373962</v>
       </c>
       <c r="BM135" t="n">
         <v>2.133333333333333</v>
@@ -28785,6 +32825,36 @@
       </c>
       <c r="BQ135" t="n">
         <v>3.699999999999999</v>
+      </c>
+      <c r="BR135" t="n">
+        <v>13.30071884984031</v>
+      </c>
+      <c r="BS135" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BT135" t="n">
+        <v>95.94343450479302</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>37</v>
+      </c>
+      <c r="BV135" t="n">
+        <v>66.36938961038919</v>
+      </c>
+      <c r="BW135" t="n">
+        <v>50.40392682926853</v>
+      </c>
+      <c r="BX135" t="n">
+        <v>84.48174515235458</v>
+      </c>
+      <c r="BY135" t="n">
+        <v>11.25877465665329</v>
+      </c>
+      <c r="BZ135" t="n">
+        <v>-29.57404489440383</v>
+      </c>
+      <c r="CA135" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -28975,10 +33045,10 @@
         <v>24.85529562982009</v>
       </c>
       <c r="BK136" t="n">
-        <v>14.46883359253505</v>
+        <v>27.46776190476201</v>
       </c>
       <c r="BL136" t="n">
-        <v>27.46776190476201</v>
+        <v>21.79039106145252</v>
       </c>
       <c r="BM136" t="n">
         <v>6.65</v>
@@ -28995,214 +33065,35 @@
       <c r="BQ136" t="n">
         <v>4.600000000000001</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>20180526</v>
-      </c>
-      <c r="B137" t="n">
-        <v>22.21060224089634</v>
-      </c>
-      <c r="C137" t="n">
-        <v>82.98834033613338</v>
-      </c>
-      <c r="D137" t="n">
-        <v>18.70794948984774</v>
-      </c>
-      <c r="E137" t="n">
-        <v>4.897834335749667</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2.500797921461565</v>
-      </c>
-      <c r="G137" t="n">
-        <v>2889.74823828419</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.01385937427126591</v>
-      </c>
-      <c r="I137" t="n">
-        <v>57.60049662751764</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.8556333348990393</v>
-      </c>
-      <c r="K137" t="n">
-        <v>1.16965921979884</v>
-      </c>
-      <c r="L137" t="n">
-        <v>2206.179717958282</v>
-      </c>
-      <c r="M137" t="n">
-        <v>16.11388281658528</v>
-      </c>
-      <c r="N137" t="n">
-        <v>21.01171715233506</v>
-      </c>
-      <c r="O137" t="n">
-        <v>6.960649787732837</v>
-      </c>
-      <c r="P137" t="n">
-        <v>17.07743355329077</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>3.726041567664797</v>
-      </c>
-      <c r="R137" t="n">
-        <v>5.312836703999074</v>
-      </c>
-      <c r="S137" t="n">
-        <v>0.9067443565293923</v>
-      </c>
-      <c r="T137" t="n">
-        <v>1163.061742324367</v>
-      </c>
-      <c r="U137" t="n">
-        <v>0.003127395719049425</v>
-      </c>
-      <c r="V137" t="n">
-        <v>14.89551216540495</v>
-      </c>
-      <c r="W137" t="n">
-        <v>0.02414761145121798</v>
-      </c>
-      <c r="X137" t="n">
-        <v>0.03313517744246109</v>
-      </c>
-      <c r="Y137" t="n">
-        <v>488.0263202333846</v>
-      </c>
-      <c r="Z137" t="n">
-        <v>3.244801265332665</v>
-      </c>
-      <c r="AA137" t="n">
-        <v>8.022856033759066</v>
-      </c>
-      <c r="AB137" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="AC137" t="n">
-        <v>46</v>
-      </c>
-      <c r="AD137" t="n">
-        <v>12.20601920349694</v>
-      </c>
-      <c r="AE137" t="n">
-        <v>0.01078505963873511</v>
-      </c>
-      <c r="AF137" t="n">
-        <v>1.191845703463588</v>
-      </c>
-      <c r="AG137" t="n">
-        <v>1420.261731555373</v>
-      </c>
-      <c r="AH137" t="n">
-        <v>0.008833199378139098</v>
-      </c>
-      <c r="AI137" t="n">
-        <v>34.54891160363243</v>
-      </c>
-      <c r="AJ137" t="n">
-        <v>0.8199808451255396</v>
-      </c>
-      <c r="AK137" t="n">
-        <v>1.121196896696626</v>
-      </c>
-      <c r="AL137" t="n">
-        <v>1418.841469823818</v>
-      </c>
-      <c r="AM137" t="n">
-        <v>10.77427457909705</v>
-      </c>
-      <c r="AN137" t="n">
-        <v>10.78505963873578</v>
-      </c>
-      <c r="AO137" t="n">
-        <v>32.29</v>
-      </c>
-      <c r="AP137" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AQ137" t="n">
-        <v>25.95984734594919</v>
-      </c>
-      <c r="AR137" t="n">
-        <v>16.83691011959998</v>
-      </c>
-      <c r="AS137" t="n">
-        <v>4.344354503057438</v>
-      </c>
-      <c r="AT137" t="n">
-        <v>4837.134022567434</v>
-      </c>
-      <c r="AU137" t="n">
-        <v>0.02130639590730716</v>
-      </c>
-      <c r="AV137" t="n">
-        <v>85.87945807831706</v>
-      </c>
-      <c r="AW137" t="n">
-        <v>0.8919040027191407</v>
-      </c>
-      <c r="AX137" t="n">
-        <v>1.219540683108152</v>
-      </c>
-      <c r="AY137" t="n">
-        <v>3356.002208414454</v>
-      </c>
-      <c r="AZ137" t="n">
-        <v>23.99605627910488</v>
-      </c>
-      <c r="BA137" t="n">
-        <v>34.31460721830438</v>
-      </c>
-      <c r="BB137" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BC137" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BD137" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BE137" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BF137" t="n">
-        <v>7.383333333333334</v>
-      </c>
-      <c r="BG137" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH137" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BI137" t="n">
-        <v>3.366666666666667</v>
-      </c>
-      <c r="BJ137" t="n">
-        <v>27.09502583979331</v>
-      </c>
-      <c r="BK137" t="n">
-        <v>16.42995412844047</v>
-      </c>
-      <c r="BL137" t="n">
-        <v>30.14590361445793</v>
-      </c>
-      <c r="BM137" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BN137" t="n">
-        <v>4.910000000000002</v>
-      </c>
-      <c r="BO137" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="BP137" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BQ137" t="n">
-        <v>6.289999999999999</v>
+      <c r="BR136" t="n">
+        <v>15.50953703703703</v>
+      </c>
+      <c r="BS136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BT136" t="n">
+        <v>97.34168209876636</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV136" t="n">
+        <v>72.65773778920325</v>
+      </c>
+      <c r="BW136" t="n">
+        <v>64.26438095238085</v>
+      </c>
+      <c r="BX136" t="n">
+        <v>82.50469273743018</v>
+      </c>
+      <c r="BY136" t="n">
+        <v>9.34575859278306</v>
+      </c>
+      <c r="BZ136" t="n">
+        <v>-24.6839443095631</v>
+      </c>
+      <c r="CA136" t="n">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
